--- a/demo-applications/customer-b2c/datasets/start-1-Nicknames.xlsx
+++ b/demo-applications/customer-b2c/datasets/start-1-Nicknames.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="29005"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mdahlman/Google Drive/Semarchy WW/Customer Success/Getting Started Guide/Customer B2C/deliverables/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/semarchy/semarchy-git/xdm-tutorials/demo-applications/customer-b2c/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FB5C322-FD90-D741-803F-CBD761F1412E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540"/>
+    <workbookView xWindow="-33540" yWindow="1660" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GD_NICKNAME" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3240" uniqueCount="2017">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3243" uniqueCount="2019">
   <si>
     <t>ariadne</t>
   </si>
@@ -3488,9 +3489,6 @@
     <t>marcus</t>
   </si>
   <si>
-    <t>mark</t>
-  </si>
-  <si>
     <t>peg</t>
   </si>
   <si>
@@ -6078,12 +6076,21 @@
   </si>
   <si>
     <t>boss,ceo,legrosfromage</t>
+  </si>
+  <si>
+    <t>mark,marc</t>
+  </si>
+  <si>
+    <t>marc</t>
+  </si>
+  <si>
+    <t>marquis</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -6437,15 +6444,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C1080"/>
+  <dimension ref="A1:C1081"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A587" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H613" sqref="H613"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6455,13 +6462,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>2012</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>2013</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2014</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2015</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -8006,13 +8013,13 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="B142" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="C142" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
@@ -11147,7 +11154,7 @@
         <v>832</v>
       </c>
       <c r="C427" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.2">
@@ -11155,10 +11162,10 @@
         <v>833</v>
       </c>
       <c r="B428" t="s">
+        <v>2010</v>
+      </c>
+      <c r="C428" t="s">
         <v>2011</v>
-      </c>
-      <c r="C428" t="s">
-        <v>2012</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.2">
@@ -13091,117 +13098,117 @@
         <v>1152</v>
       </c>
       <c r="B604" t="s">
-        <v>1153</v>
+        <v>2017</v>
       </c>
       <c r="C604" t="s">
-        <v>1153</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="605" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A605" t="s">
-        <v>323</v>
+        <v>2018</v>
       </c>
       <c r="B605" t="s">
-        <v>1154</v>
+        <v>2017</v>
       </c>
       <c r="C605" t="s">
-        <v>1155</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="606" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A606" t="s">
-        <v>1156</v>
+        <v>323</v>
       </c>
       <c r="B606" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C606" t="s">
         <v>1154</v>
-      </c>
-      <c r="C606" t="s">
-        <v>1157</v>
       </c>
     </row>
     <row r="607" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A607" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
       <c r="B607" t="s">
-        <v>1159</v>
+        <v>1153</v>
       </c>
       <c r="C607" t="s">
-        <v>1160</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="608" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A608" t="s">
-        <v>1161</v>
+        <v>1157</v>
       </c>
       <c r="B608" t="s">
-        <v>323</v>
+        <v>1158</v>
       </c>
       <c r="C608" t="s">
-        <v>1162</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="609" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A609" t="s">
-        <v>1163</v>
+        <v>1160</v>
       </c>
       <c r="B609" t="s">
-        <v>1164</v>
+        <v>323</v>
       </c>
       <c r="C609" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="610" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A610" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
       <c r="B610" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
       <c r="C610" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="611" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A611" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
       <c r="B611" t="s">
-        <v>151</v>
+        <v>1165</v>
       </c>
       <c r="C611" t="s">
-        <v>542</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="612" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A612" t="s">
-        <v>744</v>
+        <v>1166</v>
       </c>
       <c r="B612" t="s">
-        <v>399</v>
+        <v>151</v>
       </c>
       <c r="C612" t="s">
-        <v>1168</v>
+        <v>542</v>
       </c>
     </row>
     <row r="613" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A613" t="s">
-        <v>1169</v>
+        <v>744</v>
       </c>
       <c r="B613" t="s">
         <v>399</v>
       </c>
       <c r="C613" t="s">
-        <v>1170</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="614" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A614" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
       <c r="B614" t="s">
-        <v>1169</v>
+        <v>399</v>
       </c>
       <c r="C614" t="s">
         <v>1169</v>
@@ -13209,120 +13216,120 @@
     </row>
     <row r="615" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A615" t="s">
-        <v>151</v>
+        <v>1170</v>
       </c>
       <c r="B615" t="s">
-        <v>1172</v>
+        <v>1168</v>
       </c>
       <c r="C615" t="s">
-        <v>1172</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="616" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A616" t="s">
-        <v>1172</v>
+        <v>151</v>
       </c>
       <c r="B616" t="s">
-        <v>151</v>
+        <v>1171</v>
       </c>
       <c r="C616" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="617" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A617" t="s">
-        <v>131</v>
+        <v>1171</v>
       </c>
       <c r="B617" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="C617" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="618" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A618" t="s">
-        <v>1175</v>
+        <v>131</v>
       </c>
       <c r="B618" t="s">
-        <v>740</v>
+        <v>130</v>
       </c>
       <c r="C618" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="619" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A619" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
       <c r="B619" t="s">
-        <v>1178</v>
+        <v>740</v>
       </c>
       <c r="C619" t="s">
-        <v>1179</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="620" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A620" t="s">
-        <v>1180</v>
+        <v>1176</v>
       </c>
       <c r="B620" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C620" t="s">
         <v>1178</v>
-      </c>
-      <c r="C620" t="s">
-        <v>1181</v>
       </c>
     </row>
     <row r="621" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A621" t="s">
-        <v>1182</v>
+        <v>1179</v>
       </c>
       <c r="B621" t="s">
-        <v>1183</v>
+        <v>1177</v>
       </c>
       <c r="C621" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="622" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A622" t="s">
-        <v>1184</v>
+        <v>1181</v>
       </c>
       <c r="B622" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
       <c r="C622" t="s">
-        <v>1186</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="623" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A623" t="s">
-        <v>683</v>
+        <v>1183</v>
       </c>
       <c r="B623" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
       <c r="C623" t="s">
-        <v>1188</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="624" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A624" t="s">
-        <v>1189</v>
+        <v>683</v>
       </c>
       <c r="B624" t="s">
-        <v>683</v>
+        <v>1186</v>
       </c>
       <c r="C624" t="s">
-        <v>1190</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="625" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A625" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="B625" t="s">
-        <v>1189</v>
+        <v>683</v>
       </c>
       <c r="C625" t="s">
         <v>1189</v>
@@ -13330,252 +13337,252 @@
     </row>
     <row r="626" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A626" t="s">
-        <v>1191</v>
+        <v>1186</v>
       </c>
       <c r="B626" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="C626" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="627" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A627" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="B627" t="s">
-        <v>1193</v>
+        <v>1188</v>
       </c>
       <c r="C627" t="s">
-        <v>1193</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="628" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A628" t="s">
-        <v>1194</v>
+        <v>1191</v>
       </c>
       <c r="B628" t="s">
         <v>1192</v>
       </c>
       <c r="C628" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="629" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A629" t="s">
-        <v>1196</v>
+        <v>1193</v>
       </c>
       <c r="B629" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="C629" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="630" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A630" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="B630" t="s">
-        <v>87</v>
+        <v>1191</v>
       </c>
       <c r="C630" t="s">
-        <v>1198</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="631" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A631" t="s">
-        <v>1199</v>
+        <v>1196</v>
       </c>
       <c r="B631" t="s">
-        <v>1200</v>
+        <v>87</v>
       </c>
       <c r="C631" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="632" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A632" t="s">
-        <v>1201</v>
+        <v>1198</v>
       </c>
       <c r="B632" t="s">
-        <v>1202</v>
+        <v>1199</v>
       </c>
       <c r="C632" t="s">
-        <v>1202</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="633" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A633" t="s">
-        <v>1193</v>
+        <v>1200</v>
       </c>
       <c r="B633" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="C633" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="634" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A634" t="s">
-        <v>1204</v>
+        <v>1192</v>
       </c>
       <c r="B634" t="s">
-        <v>1193</v>
+        <v>1202</v>
       </c>
       <c r="C634" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="635" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A635" t="s">
-        <v>1206</v>
+        <v>1203</v>
       </c>
       <c r="B635" t="s">
-        <v>345</v>
+        <v>1192</v>
       </c>
       <c r="C635" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="636" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A636" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="B636" t="s">
         <v>345</v>
       </c>
       <c r="C636" t="s">
-        <v>345</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="637" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A637" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="B637" t="s">
-        <v>1209</v>
+        <v>345</v>
       </c>
       <c r="C637" t="s">
-        <v>1209</v>
+        <v>345</v>
       </c>
     </row>
     <row r="638" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A638" t="s">
-        <v>1210</v>
+        <v>1207</v>
       </c>
       <c r="B638" t="s">
-        <v>1211</v>
+        <v>1208</v>
       </c>
       <c r="C638" t="s">
-        <v>1212</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="639" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A639" t="s">
-        <v>1213</v>
+        <v>1209</v>
       </c>
       <c r="B639" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C639" t="s">
         <v>1211</v>
-      </c>
-      <c r="C639" t="s">
-        <v>1214</v>
       </c>
     </row>
     <row r="640" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A640" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="B640" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="C640" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="641" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A641" t="s">
-        <v>1200</v>
+        <v>1214</v>
       </c>
       <c r="B641" t="s">
-        <v>1199</v>
+        <v>1210</v>
       </c>
       <c r="C641" t="s">
-        <v>1199</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="642" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A642" t="s">
-        <v>1216</v>
+        <v>1199</v>
       </c>
       <c r="B642" t="s">
-        <v>1217</v>
+        <v>1198</v>
       </c>
       <c r="C642" t="s">
-        <v>1217</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="643" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A643" t="s">
-        <v>1218</v>
+        <v>1215</v>
       </c>
       <c r="B643" t="s">
-        <v>1219</v>
+        <v>1216</v>
       </c>
       <c r="C643" t="s">
-        <v>1220</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="644" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A644" t="s">
-        <v>1221</v>
+        <v>1217</v>
       </c>
       <c r="B644" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C644" t="s">
         <v>1219</v>
-      </c>
-      <c r="C644" t="s">
-        <v>1220</v>
       </c>
     </row>
     <row r="645" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A645" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="B645" t="s">
         <v>1218</v>
       </c>
       <c r="C645" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="646" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A646" t="s">
-        <v>1222</v>
+        <v>1218</v>
       </c>
       <c r="B646" t="s">
-        <v>1223</v>
+        <v>1217</v>
       </c>
       <c r="C646" t="s">
-        <v>1223</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="647" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A647" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="B647" t="s">
         <v>1222</v>
       </c>
       <c r="C647" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="648" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A648" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="B648" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="C648" t="s">
         <v>1223</v>
@@ -13583,373 +13590,373 @@
     </row>
     <row r="649" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A649" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="B649" t="s">
-        <v>1227</v>
+        <v>1222</v>
       </c>
       <c r="C649" t="s">
-        <v>1227</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="650" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A650" t="s">
-        <v>1228</v>
+        <v>1225</v>
       </c>
       <c r="B650" t="s">
-        <v>1229</v>
+        <v>1226</v>
       </c>
       <c r="C650" t="s">
-        <v>1229</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="651" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A651" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="B651" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
       <c r="C651" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="652" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A652" t="s">
-        <v>1232</v>
+        <v>1229</v>
       </c>
       <c r="B652" t="s">
-        <v>1233</v>
+        <v>1230</v>
       </c>
       <c r="C652" t="s">
-        <v>1233</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="653" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A653" t="s">
-        <v>1234</v>
+        <v>1231</v>
       </c>
       <c r="B653" t="s">
-        <v>1235</v>
+        <v>1232</v>
       </c>
       <c r="C653" t="s">
-        <v>1236</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="654" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A654" t="s">
-        <v>1237</v>
+        <v>1233</v>
       </c>
       <c r="B654" t="s">
         <v>1234</v>
       </c>
       <c r="C654" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="655" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A655" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="B655" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
       <c r="C655" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="656" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A656" t="s">
-        <v>1240</v>
+        <v>1234</v>
       </c>
       <c r="B656" t="s">
-        <v>1234</v>
+        <v>1238</v>
       </c>
       <c r="C656" t="s">
-        <v>1234</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="657" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A657" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="B657" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="C657" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="658" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A658" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="B658" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="C658" t="s">
-        <v>1242</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="659" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A659" t="s">
-        <v>1243</v>
+        <v>1238</v>
       </c>
       <c r="B659" t="s">
-        <v>779</v>
+        <v>1233</v>
       </c>
       <c r="C659" t="s">
-        <v>779</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="660" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A660" t="s">
-        <v>755</v>
+        <v>1242</v>
       </c>
       <c r="B660" t="s">
-        <v>202</v>
+        <v>779</v>
       </c>
       <c r="C660" t="s">
-        <v>1244</v>
+        <v>779</v>
       </c>
     </row>
     <row r="661" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A661" t="s">
+        <v>755</v>
+      </c>
+      <c r="B661" t="s">
         <v>202</v>
       </c>
-      <c r="B661" t="s">
-        <v>755</v>
-      </c>
       <c r="C661" t="s">
-        <v>755</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="662" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A662" t="s">
-        <v>1245</v>
+        <v>202</v>
       </c>
       <c r="B662" t="s">
-        <v>202</v>
+        <v>755</v>
       </c>
       <c r="C662" t="s">
-        <v>202</v>
+        <v>755</v>
       </c>
     </row>
     <row r="663" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A663" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="B663" t="s">
-        <v>1247</v>
+        <v>202</v>
       </c>
       <c r="C663" t="s">
-        <v>1248</v>
+        <v>202</v>
       </c>
     </row>
     <row r="664" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A664" t="s">
-        <v>1249</v>
+        <v>1245</v>
       </c>
       <c r="B664" t="s">
-        <v>429</v>
+        <v>1246</v>
       </c>
       <c r="C664" t="s">
-        <v>429</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="665" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A665" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="B665" t="s">
-        <v>1251</v>
+        <v>429</v>
       </c>
       <c r="C665" t="s">
-        <v>1252</v>
+        <v>429</v>
       </c>
     </row>
     <row r="666" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A666" t="s">
-        <v>1253</v>
+        <v>1249</v>
       </c>
       <c r="B666" t="s">
-        <v>1254</v>
+        <v>1250</v>
       </c>
       <c r="C666" t="s">
-        <v>1255</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="667" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A667" t="s">
-        <v>1256</v>
+        <v>1252</v>
       </c>
       <c r="B667" t="s">
-        <v>1257</v>
+        <v>1253</v>
       </c>
       <c r="C667" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="668" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A668" t="s">
-        <v>827</v>
+        <v>1255</v>
       </c>
       <c r="B668" t="s">
-        <v>826</v>
+        <v>1256</v>
       </c>
       <c r="C668" t="s">
-        <v>826</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="669" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A669" t="s">
-        <v>1258</v>
+        <v>827</v>
       </c>
       <c r="B669" t="s">
-        <v>1259</v>
+        <v>826</v>
       </c>
       <c r="C669" t="s">
-        <v>1259</v>
+        <v>826</v>
       </c>
     </row>
     <row r="670" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A670" t="s">
-        <v>1260</v>
+        <v>1257</v>
       </c>
       <c r="B670" t="s">
-        <v>57</v>
+        <v>1258</v>
       </c>
       <c r="C670" t="s">
-        <v>57</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="671" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A671" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="B671" t="s">
-        <v>1262</v>
+        <v>57</v>
       </c>
       <c r="C671" t="s">
-        <v>1263</v>
+        <v>57</v>
       </c>
     </row>
     <row r="672" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A672" t="s">
-        <v>1264</v>
+        <v>1260</v>
       </c>
       <c r="B672" t="s">
-        <v>1265</v>
+        <v>1261</v>
       </c>
       <c r="C672" t="s">
-        <v>1266</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="673" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A673" t="s">
-        <v>1267</v>
+        <v>1263</v>
       </c>
       <c r="B673" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C673" t="s">
         <v>1265</v>
-      </c>
-      <c r="C673" t="s">
-        <v>1266</v>
       </c>
     </row>
     <row r="674" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A674" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="B674" t="s">
-        <v>210</v>
+        <v>1264</v>
       </c>
       <c r="C674" t="s">
-        <v>210</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="675" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A675" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="B675" t="s">
-        <v>1270</v>
+        <v>210</v>
       </c>
       <c r="C675" t="s">
-        <v>1270</v>
+        <v>210</v>
       </c>
     </row>
     <row r="676" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A676" t="s">
-        <v>1271</v>
+        <v>1268</v>
       </c>
       <c r="B676" t="s">
-        <v>830</v>
+        <v>1269</v>
       </c>
       <c r="C676" t="s">
-        <v>1272</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="677" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A677" t="s">
-        <v>1273</v>
+        <v>1270</v>
       </c>
       <c r="B677" t="s">
-        <v>327</v>
+        <v>830</v>
       </c>
       <c r="C677" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="678" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A678" t="s">
-        <v>236</v>
+        <v>1272</v>
       </c>
       <c r="B678" t="s">
-        <v>234</v>
+        <v>327</v>
       </c>
       <c r="C678" t="s">
-        <v>234</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="679" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A679" t="s">
-        <v>1275</v>
+        <v>236</v>
       </c>
       <c r="B679" t="s">
-        <v>1037</v>
+        <v>234</v>
       </c>
       <c r="C679" t="s">
-        <v>1276</v>
+        <v>234</v>
       </c>
     </row>
     <row r="680" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A680" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="B680" t="s">
-        <v>1278</v>
+        <v>1037</v>
       </c>
       <c r="C680" t="s">
-        <v>1279</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="681" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A681" t="s">
-        <v>1280</v>
+        <v>1276</v>
       </c>
       <c r="B681" t="s">
-        <v>1281</v>
+        <v>1277</v>
       </c>
       <c r="C681" t="s">
-        <v>1282</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="682" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A682" t="s">
-        <v>1283</v>
+        <v>1279</v>
       </c>
       <c r="B682" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="C682" t="s">
         <v>1281</v>
@@ -13957,208 +13964,208 @@
     </row>
     <row r="683" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A683" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="B683" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="C683" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="684" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A684" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="B684" t="s">
-        <v>1286</v>
+        <v>1280</v>
       </c>
       <c r="C684" t="s">
-        <v>1286</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="685" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A685" t="s">
-        <v>1287</v>
+        <v>1284</v>
       </c>
       <c r="B685" t="s">
-        <v>1288</v>
+        <v>1285</v>
       </c>
       <c r="C685" t="s">
-        <v>1288</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="686" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A686" t="s">
-        <v>1289</v>
+        <v>1286</v>
       </c>
       <c r="B686" t="s">
-        <v>1290</v>
+        <v>1287</v>
       </c>
       <c r="C686" t="s">
-        <v>1290</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="687" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A687" t="s">
-        <v>1291</v>
+        <v>1288</v>
       </c>
       <c r="B687" t="s">
-        <v>1292</v>
+        <v>1289</v>
       </c>
       <c r="C687" t="s">
-        <v>1293</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="688" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A688" t="s">
-        <v>1294</v>
+        <v>1290</v>
       </c>
       <c r="B688" t="s">
-        <v>1288</v>
+        <v>1291</v>
       </c>
       <c r="C688" t="s">
-        <v>1295</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="689" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A689" t="s">
-        <v>1296</v>
+        <v>1293</v>
       </c>
       <c r="B689" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="C689" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="690" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A690" t="s">
-        <v>1292</v>
+        <v>1295</v>
       </c>
       <c r="B690" t="s">
-        <v>1297</v>
+        <v>1287</v>
       </c>
       <c r="C690" t="s">
-        <v>1297</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="691" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A691" t="s">
-        <v>1298</v>
+        <v>1291</v>
       </c>
       <c r="B691" t="s">
-        <v>1299</v>
+        <v>1296</v>
       </c>
       <c r="C691" t="s">
-        <v>1299</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="692" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A692" t="s">
-        <v>1300</v>
+        <v>1297</v>
       </c>
       <c r="B692" t="s">
-        <v>1301</v>
+        <v>1298</v>
       </c>
       <c r="C692" t="s">
-        <v>1301</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="693" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A693" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="B693" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
       <c r="C693" t="s">
-        <v>1304</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="694" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A694" t="s">
-        <v>1305</v>
+        <v>1301</v>
       </c>
       <c r="B694" t="s">
-        <v>1306</v>
+        <v>1302</v>
       </c>
       <c r="C694" t="s">
-        <v>1307</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="695" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A695" t="s">
-        <v>1308</v>
+        <v>1304</v>
       </c>
       <c r="B695" t="s">
-        <v>1309</v>
+        <v>1305</v>
       </c>
       <c r="C695" t="s">
-        <v>1309</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="696" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A696" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="B696" t="s">
-        <v>1311</v>
+        <v>1308</v>
       </c>
       <c r="C696" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="697" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A697" t="s">
-        <v>1313</v>
+        <v>1309</v>
       </c>
       <c r="B697" t="s">
-        <v>1314</v>
+        <v>1310</v>
       </c>
       <c r="C697" t="s">
-        <v>1314</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="698" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A698" t="s">
-        <v>1315</v>
+        <v>1312</v>
       </c>
       <c r="B698" t="s">
-        <v>1316</v>
+        <v>1313</v>
       </c>
       <c r="C698" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="699" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A699" t="s">
-        <v>1318</v>
+        <v>1314</v>
       </c>
       <c r="B699" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="C699" t="s">
-        <v>1319</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="700" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A700" t="s">
-        <v>1314</v>
+        <v>1317</v>
       </c>
       <c r="B700" t="s">
+        <v>1313</v>
+      </c>
+      <c r="C700" t="s">
         <v>1318</v>
-      </c>
-      <c r="C700" t="s">
-        <v>1320</v>
       </c>
     </row>
     <row r="701" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A701" t="s">
-        <v>1321</v>
+        <v>1313</v>
       </c>
       <c r="B701" t="s">
-        <v>1314</v>
+        <v>1317</v>
       </c>
       <c r="C701" t="s">
         <v>1319</v>
@@ -14166,150 +14173,150 @@
     </row>
     <row r="702" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A702" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="B702" t="s">
-        <v>1323</v>
+        <v>1313</v>
       </c>
       <c r="C702" t="s">
-        <v>1323</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="703" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A703" t="s">
-        <v>1324</v>
+        <v>1321</v>
       </c>
       <c r="B703" t="s">
-        <v>1325</v>
+        <v>1322</v>
       </c>
       <c r="C703" t="s">
-        <v>1326</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="704" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A704" t="s">
-        <v>1327</v>
+        <v>1323</v>
       </c>
       <c r="B704" t="s">
-        <v>1328</v>
+        <v>1324</v>
       </c>
       <c r="C704" t="s">
-        <v>1329</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="705" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A705" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="B705" t="s">
         <v>1327</v>
       </c>
       <c r="C705" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="706" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A706" t="s">
-        <v>1330</v>
+        <v>1327</v>
       </c>
       <c r="B706" t="s">
-        <v>1324</v>
+        <v>1326</v>
       </c>
       <c r="C706" t="s">
-        <v>1331</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="707" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A707" t="s">
-        <v>1332</v>
+        <v>1329</v>
       </c>
       <c r="B707" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="C707" t="s">
-        <v>1333</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="708" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A708" t="s">
-        <v>1325</v>
+        <v>1331</v>
       </c>
       <c r="B708" t="s">
-        <v>1334</v>
+        <v>1323</v>
       </c>
       <c r="C708" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="709" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A709" t="s">
-        <v>1335</v>
+        <v>1324</v>
       </c>
       <c r="B709" t="s">
-        <v>1324</v>
+        <v>1333</v>
       </c>
       <c r="C709" t="s">
-        <v>1336</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="710" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A710" t="s">
-        <v>1337</v>
+        <v>1334</v>
       </c>
       <c r="B710" t="s">
-        <v>1278</v>
+        <v>1323</v>
       </c>
       <c r="C710" t="s">
-        <v>1278</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="711" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A711" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="B711" t="s">
-        <v>1281</v>
+        <v>1277</v>
       </c>
       <c r="C711" t="s">
-        <v>1281</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="712" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A712" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="B712" t="s">
-        <v>1292</v>
+        <v>1280</v>
       </c>
       <c r="C712" t="s">
-        <v>1340</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="713" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A713" t="s">
-        <v>1297</v>
+        <v>1338</v>
       </c>
       <c r="B713" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="C713" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="714" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A714" t="s">
-        <v>1342</v>
+        <v>1296</v>
       </c>
       <c r="B714" t="s">
-        <v>1343</v>
+        <v>1291</v>
       </c>
       <c r="C714" t="s">
-        <v>1343</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="715" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A715" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="B715" t="s">
         <v>1342</v>
@@ -14320,79 +14327,79 @@
     </row>
     <row r="716" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A716" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="B716" t="s">
-        <v>1345</v>
+        <v>1341</v>
       </c>
       <c r="C716" t="s">
-        <v>1345</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="717" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A717" t="s">
-        <v>1346</v>
+        <v>1343</v>
       </c>
       <c r="B717" t="s">
-        <v>1347</v>
+        <v>1344</v>
       </c>
       <c r="C717" t="s">
-        <v>1347</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="718" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A718" t="s">
-        <v>1348</v>
+        <v>1345</v>
       </c>
       <c r="B718" t="s">
-        <v>1349</v>
+        <v>1346</v>
       </c>
       <c r="C718" t="s">
-        <v>1350</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="719" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A719" t="s">
-        <v>451</v>
+        <v>1347</v>
       </c>
       <c r="B719" t="s">
-        <v>1351</v>
+        <v>1348</v>
       </c>
       <c r="C719" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="720" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A720" t="s">
-        <v>1352</v>
+        <v>451</v>
       </c>
       <c r="B720" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
       <c r="C720" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="721" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A721" t="s">
-        <v>1354</v>
+        <v>1351</v>
       </c>
       <c r="B721" t="s">
-        <v>1355</v>
+        <v>1352</v>
       </c>
       <c r="C721" t="s">
-        <v>1355</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="722" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A722" t="s">
-        <v>1356</v>
+        <v>1353</v>
       </c>
       <c r="B722" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="C722" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="723" spans="1:3" x14ac:dyDescent="0.2">
@@ -14408,40 +14415,40 @@
     </row>
     <row r="724" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A724" t="s">
-        <v>1357</v>
+        <v>1354</v>
       </c>
       <c r="B724" t="s">
-        <v>1356</v>
+        <v>1353</v>
       </c>
       <c r="C724" t="s">
-        <v>1358</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="725" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A725" t="s">
-        <v>1359</v>
+        <v>1356</v>
       </c>
       <c r="B725" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="C725" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="726" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A726" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="B726" t="s">
-        <v>1361</v>
+        <v>1355</v>
       </c>
       <c r="C726" t="s">
-        <v>1361</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="727" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A727" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="B727" t="s">
         <v>1360</v>
@@ -14452,24 +14459,24 @@
     </row>
     <row r="728" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A728" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="B728" t="s">
-        <v>1363</v>
+        <v>1359</v>
       </c>
       <c r="C728" t="s">
-        <v>1363</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="729" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A729" t="s">
-        <v>1364</v>
+        <v>1361</v>
       </c>
       <c r="B729" t="s">
-        <v>414</v>
+        <v>1362</v>
       </c>
       <c r="C729" t="s">
-        <v>414</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="730" spans="1:3" x14ac:dyDescent="0.2">
@@ -14477,788 +14484,788 @@
         <v>1363</v>
       </c>
       <c r="B730" t="s">
-        <v>1362</v>
+        <v>414</v>
       </c>
       <c r="C730" t="s">
-        <v>1365</v>
+        <v>414</v>
       </c>
     </row>
     <row r="731" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A731" t="s">
-        <v>1366</v>
+        <v>1362</v>
       </c>
       <c r="B731" t="s">
-        <v>1367</v>
+        <v>1361</v>
       </c>
       <c r="C731" t="s">
-        <v>1368</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="732" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A732" t="s">
-        <v>1369</v>
+        <v>1365</v>
       </c>
       <c r="B732" t="s">
-        <v>1370</v>
+        <v>1366</v>
       </c>
       <c r="C732" t="s">
-        <v>1370</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="733" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A733" t="s">
-        <v>1371</v>
+        <v>1368</v>
       </c>
       <c r="B733" t="s">
-        <v>1372</v>
+        <v>1369</v>
       </c>
       <c r="C733" t="s">
-        <v>1372</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="734" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A734" t="s">
-        <v>1373</v>
+        <v>1370</v>
       </c>
       <c r="B734" t="s">
-        <v>1357</v>
+        <v>1371</v>
       </c>
       <c r="C734" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="735" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A735" t="s">
-        <v>1375</v>
+        <v>1372</v>
       </c>
       <c r="B735" t="s">
-        <v>1376</v>
+        <v>1356</v>
       </c>
       <c r="C735" t="s">
-        <v>1377</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="736" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A736" t="s">
-        <v>1378</v>
+        <v>1374</v>
       </c>
       <c r="B736" t="s">
+        <v>1375</v>
+      </c>
+      <c r="C736" t="s">
         <v>1376</v>
-      </c>
-      <c r="C736" t="s">
-        <v>1379</v>
       </c>
     </row>
     <row r="737" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A737" t="s">
-        <v>1380</v>
+        <v>1377</v>
       </c>
       <c r="B737" t="s">
-        <v>1381</v>
+        <v>1375</v>
       </c>
       <c r="C737" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="738" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A738" t="s">
-        <v>1382</v>
+        <v>1379</v>
       </c>
       <c r="B738" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
       <c r="C738" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="739" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A739" t="s">
-        <v>1385</v>
+        <v>1381</v>
       </c>
       <c r="B739" t="s">
-        <v>1386</v>
+        <v>1382</v>
       </c>
       <c r="C739" t="s">
-        <v>1386</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="740" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A740" t="s">
-        <v>1387</v>
+        <v>1384</v>
       </c>
       <c r="B740" t="s">
-        <v>1388</v>
+        <v>1385</v>
       </c>
       <c r="C740" t="s">
-        <v>1389</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="741" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A741" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B741" t="s">
+        <v>1387</v>
+      </c>
+      <c r="C741" t="s">
         <v>1388</v>
-      </c>
-      <c r="B741" t="s">
-        <v>1390</v>
-      </c>
-      <c r="C741" t="s">
-        <v>1390</v>
       </c>
     </row>
     <row r="742" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A742" t="s">
-        <v>1390</v>
+        <v>1387</v>
       </c>
       <c r="B742" t="s">
-        <v>1387</v>
+        <v>1389</v>
       </c>
       <c r="C742" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="743" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A743" t="s">
-        <v>247</v>
+        <v>1389</v>
       </c>
       <c r="B743" t="s">
-        <v>249</v>
+        <v>1386</v>
       </c>
       <c r="C743" t="s">
-        <v>249</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="744" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A744" t="s">
-        <v>1392</v>
+        <v>247</v>
       </c>
       <c r="B744" t="s">
-        <v>1393</v>
+        <v>249</v>
       </c>
       <c r="C744" t="s">
-        <v>1394</v>
+        <v>249</v>
       </c>
     </row>
     <row r="745" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A745" t="s">
-        <v>1376</v>
+        <v>1391</v>
       </c>
       <c r="B745" t="s">
-        <v>1395</v>
+        <v>1392</v>
       </c>
       <c r="C745" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="746" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A746" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B746" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C746" t="s">
         <v>1395</v>
-      </c>
-      <c r="B746" t="s">
-        <v>1378</v>
-      </c>
-      <c r="C746" t="s">
-        <v>1378</v>
       </c>
     </row>
     <row r="747" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A747" t="s">
-        <v>830</v>
+        <v>1394</v>
       </c>
       <c r="B747" t="s">
-        <v>829</v>
+        <v>1377</v>
       </c>
       <c r="C747" t="s">
-        <v>829</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="748" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A748" t="s">
-        <v>1397</v>
+        <v>830</v>
       </c>
       <c r="B748" t="s">
-        <v>1398</v>
+        <v>829</v>
       </c>
       <c r="C748" t="s">
-        <v>1399</v>
+        <v>829</v>
       </c>
     </row>
     <row r="749" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A749" t="s">
-        <v>1400</v>
+        <v>1396</v>
       </c>
       <c r="B749" t="s">
-        <v>1401</v>
+        <v>1397</v>
       </c>
       <c r="C749" t="s">
-        <v>1401</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="750" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A750" t="s">
-        <v>1402</v>
+        <v>1399</v>
       </c>
       <c r="B750" t="s">
-        <v>78</v>
+        <v>1400</v>
       </c>
       <c r="C750" t="s">
-        <v>78</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="751" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A751" t="s">
-        <v>673</v>
+        <v>1401</v>
       </c>
       <c r="B751" t="s">
-        <v>672</v>
+        <v>78</v>
       </c>
       <c r="C751" t="s">
-        <v>672</v>
+        <v>78</v>
       </c>
     </row>
     <row r="752" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A752" t="s">
-        <v>1403</v>
+        <v>673</v>
       </c>
       <c r="B752" t="s">
-        <v>1404</v>
+        <v>672</v>
       </c>
       <c r="C752" t="s">
-        <v>1404</v>
+        <v>672</v>
       </c>
     </row>
     <row r="753" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A753" t="s">
-        <v>1405</v>
+        <v>1402</v>
       </c>
       <c r="B753" t="s">
-        <v>567</v>
+        <v>1403</v>
       </c>
       <c r="C753" t="s">
-        <v>1406</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="754" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A754" t="s">
-        <v>1407</v>
+        <v>1404</v>
       </c>
       <c r="B754" t="s">
-        <v>59</v>
+        <v>567</v>
       </c>
       <c r="C754" t="s">
-        <v>59</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="755" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A755" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="B755" t="s">
-        <v>1409</v>
+        <v>59</v>
       </c>
       <c r="C755" t="s">
-        <v>1410</v>
+        <v>59</v>
       </c>
     </row>
     <row r="756" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A756" t="s">
-        <v>1411</v>
+        <v>1407</v>
       </c>
       <c r="B756" t="s">
-        <v>1412</v>
+        <v>1408</v>
       </c>
       <c r="C756" t="s">
-        <v>1413</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="757" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A757" t="s">
-        <v>1414</v>
+        <v>1410</v>
       </c>
       <c r="B757" t="s">
-        <v>601</v>
+        <v>1411</v>
       </c>
       <c r="C757" t="s">
-        <v>601</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="758" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A758" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="B758" t="s">
-        <v>1412</v>
+        <v>601</v>
       </c>
       <c r="C758" t="s">
-        <v>1412</v>
+        <v>601</v>
       </c>
     </row>
     <row r="759" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A759" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="B759" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="C759" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="760" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A760" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="B760" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
       <c r="C760" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="761" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A761" t="s">
-        <v>1419</v>
+        <v>1416</v>
       </c>
       <c r="B761" t="s">
-        <v>1251</v>
+        <v>1417</v>
       </c>
       <c r="C761" t="s">
-        <v>1251</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="762" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A762" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="B762" t="s">
-        <v>727</v>
+        <v>1250</v>
       </c>
       <c r="C762" t="s">
-        <v>1421</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="763" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A763" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
       <c r="B763" t="s">
-        <v>1423</v>
+        <v>727</v>
       </c>
       <c r="C763" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="764" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A764" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="B764" t="s">
-        <v>1187</v>
+        <v>1422</v>
       </c>
       <c r="C764" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="765" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A765" t="s">
-        <v>1426</v>
+        <v>1423</v>
       </c>
       <c r="B765" t="s">
-        <v>1427</v>
+        <v>1186</v>
       </c>
       <c r="C765" t="s">
-        <v>1428</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="766" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A766" t="s">
-        <v>1429</v>
+        <v>1425</v>
       </c>
       <c r="B766" t="s">
-        <v>1430</v>
+        <v>1426</v>
       </c>
       <c r="C766" t="s">
-        <v>1431</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="767" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A767" t="s">
-        <v>1432</v>
+        <v>1428</v>
       </c>
       <c r="B767" t="s">
-        <v>1433</v>
+        <v>1429</v>
       </c>
       <c r="C767" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="768" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A768" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="B768" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="C768" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="769" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A769" t="s">
-        <v>1427</v>
+        <v>1429</v>
       </c>
       <c r="B769" t="s">
-        <v>1426</v>
+        <v>1432</v>
       </c>
       <c r="C769" t="s">
-        <v>1426</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="770" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A770" t="s">
-        <v>1433</v>
+        <v>1426</v>
       </c>
       <c r="B770" t="s">
-        <v>1434</v>
+        <v>1425</v>
       </c>
       <c r="C770" t="s">
-        <v>1435</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="771" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A771" t="s">
-        <v>1436</v>
+        <v>1432</v>
       </c>
       <c r="B771" t="s">
-        <v>1437</v>
+        <v>1433</v>
       </c>
       <c r="C771" t="s">
-        <v>1437</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="772" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A772" t="s">
-        <v>1438</v>
+        <v>1435</v>
       </c>
       <c r="B772" t="s">
-        <v>1439</v>
+        <v>1436</v>
       </c>
       <c r="C772" t="s">
-        <v>1439</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="773" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A773" t="s">
-        <v>1440</v>
+        <v>1437</v>
       </c>
       <c r="B773" t="s">
         <v>1438</v>
       </c>
       <c r="C773" t="s">
-        <v>1441</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="774" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A774" t="s">
-        <v>1442</v>
+        <v>1439</v>
       </c>
       <c r="B774" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
       <c r="C774" t="s">
-        <v>1443</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="775" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A775" t="s">
-        <v>1444</v>
+        <v>1441</v>
       </c>
       <c r="B775" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
       <c r="C775" t="s">
-        <v>1437</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="776" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A776" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
       <c r="B776" t="s">
-        <v>1446</v>
+        <v>1436</v>
       </c>
       <c r="C776" t="s">
-        <v>1447</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="777" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A777" t="s">
-        <v>1448</v>
+        <v>1444</v>
       </c>
       <c r="B777" t="s">
-        <v>1449</v>
+        <v>1445</v>
       </c>
       <c r="C777" t="s">
-        <v>1449</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="778" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A778" t="s">
-        <v>1450</v>
+        <v>1447</v>
       </c>
       <c r="B778" t="s">
-        <v>1451</v>
+        <v>1448</v>
       </c>
       <c r="C778" t="s">
-        <v>1452</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="779" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A779" t="s">
-        <v>1453</v>
+        <v>1449</v>
       </c>
       <c r="B779" t="s">
-        <v>1454</v>
+        <v>1450</v>
       </c>
       <c r="C779" t="s">
-        <v>1455</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="780" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A780" t="s">
-        <v>1456</v>
+        <v>1452</v>
       </c>
       <c r="B780" t="s">
-        <v>1457</v>
+        <v>1453</v>
       </c>
       <c r="C780" t="s">
-        <v>1458</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="781" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A781" t="s">
-        <v>1459</v>
+        <v>1455</v>
       </c>
       <c r="B781" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="C781" t="s">
-        <v>1460</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="782" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A782" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="B782" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
       <c r="C782" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="783" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A783" t="s">
-        <v>1462</v>
+        <v>1459</v>
       </c>
       <c r="B783" t="s">
         <v>1460</v>
       </c>
       <c r="C783" t="s">
-        <v>1463</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="784" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A784" t="s">
-        <v>1464</v>
+        <v>1461</v>
       </c>
       <c r="B784" t="s">
-        <v>1465</v>
+        <v>1459</v>
       </c>
       <c r="C784" t="s">
-        <v>1465</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="785" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A785" t="s">
-        <v>1466</v>
+        <v>1463</v>
       </c>
       <c r="B785" t="s">
-        <v>1467</v>
+        <v>1464</v>
       </c>
       <c r="C785" t="s">
-        <v>1467</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="786" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A786" t="s">
-        <v>1468</v>
+        <v>1465</v>
       </c>
       <c r="B786" t="s">
-        <v>1469</v>
+        <v>1466</v>
       </c>
       <c r="C786" t="s">
-        <v>1469</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="787" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A787" t="s">
-        <v>1470</v>
+        <v>1467</v>
       </c>
       <c r="B787" t="s">
-        <v>104</v>
+        <v>1468</v>
       </c>
       <c r="C787" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="788" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A788" t="s">
-        <v>1472</v>
+        <v>1469</v>
       </c>
       <c r="B788" t="s">
-        <v>1473</v>
+        <v>104</v>
       </c>
       <c r="C788" t="s">
-        <v>1474</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="789" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A789" t="s">
-        <v>1475</v>
+        <v>1471</v>
       </c>
       <c r="B789" t="s">
-        <v>1476</v>
+        <v>1472</v>
       </c>
       <c r="C789" t="s">
-        <v>1476</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="790" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A790" t="s">
-        <v>1477</v>
+        <v>1474</v>
       </c>
       <c r="B790" t="s">
-        <v>1478</v>
+        <v>1475</v>
       </c>
       <c r="C790" t="s">
-        <v>1479</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="791" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A791" t="s">
-        <v>1480</v>
+        <v>1476</v>
       </c>
       <c r="B791" t="s">
-        <v>1481</v>
+        <v>1477</v>
       </c>
       <c r="C791" t="s">
-        <v>1482</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="792" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A792" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="B792" t="s">
-        <v>1476</v>
+        <v>1480</v>
       </c>
       <c r="C792" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="793" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A793" t="s">
-        <v>1484</v>
+        <v>1477</v>
       </c>
       <c r="B793" t="s">
-        <v>124</v>
+        <v>1475</v>
       </c>
       <c r="C793" t="s">
-        <v>1485</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="794" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A794" t="s">
-        <v>1476</v>
+        <v>1483</v>
       </c>
       <c r="B794" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C794" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="795" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A795" t="s">
-        <v>1487</v>
+        <v>1475</v>
       </c>
       <c r="B795" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C795" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="796" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A796" t="s">
-        <v>1489</v>
+        <v>1486</v>
       </c>
       <c r="B796" t="s">
-        <v>1478</v>
+        <v>124</v>
       </c>
       <c r="C796" t="s">
-        <v>1490</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="797" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A797" t="s">
-        <v>1491</v>
+        <v>1488</v>
       </c>
       <c r="B797" t="s">
-        <v>1492</v>
+        <v>1477</v>
       </c>
       <c r="C797" t="s">
-        <v>1493</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="798" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A798" t="s">
-        <v>1494</v>
+        <v>1490</v>
       </c>
       <c r="B798" t="s">
-        <v>637</v>
+        <v>1491</v>
       </c>
       <c r="C798" t="s">
-        <v>1495</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="799" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A799" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="B799" t="s">
-        <v>1497</v>
+        <v>637</v>
       </c>
       <c r="C799" t="s">
-        <v>1497</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="800" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A800" t="s">
-        <v>1497</v>
+        <v>1495</v>
       </c>
       <c r="B800" t="s">
-        <v>637</v>
+        <v>1496</v>
       </c>
       <c r="C800" t="s">
-        <v>1498</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="801" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A801" t="s">
-        <v>1499</v>
+        <v>1496</v>
       </c>
       <c r="B801" t="s">
-        <v>1497</v>
+        <v>637</v>
       </c>
       <c r="C801" t="s">
         <v>1497</v>
@@ -15266,260 +15273,260 @@
     </row>
     <row r="802" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A802" t="s">
-        <v>1500</v>
+        <v>1498</v>
       </c>
       <c r="B802" t="s">
-        <v>1501</v>
+        <v>1496</v>
       </c>
       <c r="C802" t="s">
-        <v>1501</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="803" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A803" t="s">
-        <v>1502</v>
+        <v>1499</v>
       </c>
       <c r="B803" t="s">
-        <v>520</v>
+        <v>1500</v>
       </c>
       <c r="C803" t="s">
-        <v>1503</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="804" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A804" t="s">
-        <v>1504</v>
+        <v>1501</v>
       </c>
       <c r="B804" t="s">
-        <v>1505</v>
+        <v>520</v>
       </c>
       <c r="C804" t="s">
-        <v>7</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="805" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A805" t="s">
-        <v>1506</v>
+        <v>1503</v>
       </c>
       <c r="B805" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="C805" t="s">
-        <v>1508</v>
+        <v>7</v>
       </c>
     </row>
     <row r="806" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A806" t="s">
-        <v>1509</v>
+        <v>1505</v>
       </c>
       <c r="B806" t="s">
-        <v>1510</v>
+        <v>1506</v>
       </c>
       <c r="C806" t="s">
-        <v>1510</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="807" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A807" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="B807" t="s">
-        <v>1512</v>
+        <v>1509</v>
       </c>
       <c r="C807" t="s">
-        <v>1512</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="808" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A808" t="s">
-        <v>1512</v>
+        <v>1510</v>
       </c>
       <c r="B808" t="s">
         <v>1511</v>
       </c>
       <c r="C808" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="809" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A809" t="s">
-        <v>1514</v>
+        <v>1511</v>
       </c>
       <c r="B809" t="s">
-        <v>1515</v>
+        <v>1510</v>
       </c>
       <c r="C809" t="s">
-        <v>1515</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="810" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A810" t="s">
-        <v>1516</v>
+        <v>1513</v>
       </c>
       <c r="B810" t="s">
-        <v>1517</v>
+        <v>1514</v>
       </c>
       <c r="C810" t="s">
-        <v>1518</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="811" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A811" t="s">
-        <v>1519</v>
+        <v>1515</v>
       </c>
       <c r="B811" t="s">
-        <v>1520</v>
+        <v>1516</v>
       </c>
       <c r="C811" t="s">
-        <v>1520</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="812" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A812" t="s">
-        <v>1521</v>
+        <v>1518</v>
       </c>
       <c r="B812" t="s">
-        <v>341</v>
+        <v>1519</v>
       </c>
       <c r="C812" t="s">
-        <v>1522</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="813" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A813" t="s">
-        <v>1523</v>
+        <v>1520</v>
       </c>
       <c r="B813" t="s">
-        <v>1524</v>
+        <v>341</v>
       </c>
       <c r="C813" t="s">
-        <v>1525</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="814" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A814" t="s">
-        <v>1526</v>
+        <v>1522</v>
       </c>
       <c r="B814" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
       <c r="C814" t="s">
-        <v>1528</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="815" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A815" t="s">
-        <v>1529</v>
+        <v>1525</v>
       </c>
       <c r="B815" t="s">
-        <v>1530</v>
+        <v>1526</v>
       </c>
       <c r="C815" t="s">
-        <v>2016</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="816" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A816" t="s">
-        <v>1531</v>
+        <v>1528</v>
       </c>
       <c r="B816" t="s">
-        <v>1532</v>
+        <v>1529</v>
       </c>
       <c r="C816" t="s">
-        <v>1533</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="817" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A817" t="s">
-        <v>1534</v>
+        <v>1530</v>
       </c>
       <c r="B817" t="s">
-        <v>1535</v>
+        <v>1531</v>
       </c>
       <c r="C817" t="s">
-        <v>1536</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="818" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A818" t="s">
-        <v>1537</v>
+        <v>1533</v>
       </c>
       <c r="B818" t="s">
-        <v>1538</v>
+        <v>1534</v>
       </c>
       <c r="C818" t="s">
-        <v>1538</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="819" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A819" t="s">
-        <v>1539</v>
+        <v>1536</v>
       </c>
       <c r="B819" t="s">
-        <v>1164</v>
+        <v>1537</v>
       </c>
       <c r="C819" t="s">
-        <v>1164</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="820" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A820" t="s">
-        <v>1540</v>
+        <v>1538</v>
       </c>
       <c r="B820" t="s">
-        <v>380</v>
+        <v>1163</v>
       </c>
       <c r="C820" t="s">
-        <v>1541</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="821" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A821" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="B821" t="s">
-        <v>1543</v>
+        <v>380</v>
       </c>
       <c r="C821" t="s">
-        <v>1544</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="822" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A822" t="s">
-        <v>1545</v>
+        <v>1541</v>
       </c>
       <c r="B822" t="s">
-        <v>1546</v>
+        <v>1542</v>
       </c>
       <c r="C822" t="s">
-        <v>1546</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="823" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A823" t="s">
-        <v>1547</v>
+        <v>1544</v>
       </c>
       <c r="B823" t="s">
-        <v>1548</v>
+        <v>1545</v>
       </c>
       <c r="C823" t="s">
-        <v>1549</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="824" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A824" t="s">
-        <v>1550</v>
+        <v>1546</v>
       </c>
       <c r="B824" t="s">
-        <v>380</v>
+        <v>1547</v>
       </c>
       <c r="C824" t="s">
-        <v>380</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="825" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A825" t="s">
-        <v>1543</v>
+        <v>1549</v>
       </c>
       <c r="B825" t="s">
         <v>380</v>
@@ -15530,95 +15537,95 @@
     </row>
     <row r="826" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A826" t="s">
-        <v>1551</v>
+        <v>1542</v>
       </c>
       <c r="B826" t="s">
-        <v>1552</v>
+        <v>380</v>
       </c>
       <c r="C826" t="s">
-        <v>1552</v>
+        <v>380</v>
       </c>
     </row>
     <row r="827" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A827" t="s">
-        <v>1164</v>
+        <v>1550</v>
       </c>
       <c r="B827" t="s">
-        <v>1163</v>
+        <v>1551</v>
       </c>
       <c r="C827" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="828" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A828" t="s">
-        <v>1554</v>
+        <v>1163</v>
       </c>
       <c r="B828" t="s">
-        <v>1555</v>
+        <v>1162</v>
       </c>
       <c r="C828" t="s">
-        <v>1556</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="829" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A829" t="s">
-        <v>1557</v>
+        <v>1553</v>
       </c>
       <c r="B829" t="s">
-        <v>1558</v>
+        <v>1554</v>
       </c>
       <c r="C829" t="s">
-        <v>1559</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="830" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A830" t="s">
-        <v>1560</v>
+        <v>1556</v>
       </c>
       <c r="B830" t="s">
-        <v>1561</v>
+        <v>1557</v>
       </c>
       <c r="C830" t="s">
-        <v>1561</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="831" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A831" t="s">
-        <v>1562</v>
+        <v>1559</v>
       </c>
       <c r="B831" t="s">
-        <v>247</v>
+        <v>1560</v>
       </c>
       <c r="C831" t="s">
-        <v>247</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="832" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A832" t="s">
-        <v>1563</v>
+        <v>1561</v>
       </c>
       <c r="B832" t="s">
-        <v>1564</v>
+        <v>247</v>
       </c>
       <c r="C832" t="s">
-        <v>1564</v>
+        <v>247</v>
       </c>
     </row>
     <row r="833" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A833" t="s">
-        <v>1565</v>
+        <v>1562</v>
       </c>
       <c r="B833" t="s">
-        <v>1566</v>
+        <v>1563</v>
       </c>
       <c r="C833" t="s">
-        <v>1566</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="834" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A834" t="s">
-        <v>1566</v>
+        <v>1564</v>
       </c>
       <c r="B834" t="s">
         <v>1565</v>
@@ -15629,315 +15636,315 @@
     </row>
     <row r="835" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A835" t="s">
-        <v>380</v>
+        <v>1565</v>
       </c>
       <c r="B835" t="s">
-        <v>1548</v>
+        <v>1564</v>
       </c>
       <c r="C835" t="s">
-        <v>1567</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="836" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A836" t="s">
-        <v>1568</v>
+        <v>380</v>
       </c>
       <c r="B836" t="s">
-        <v>1569</v>
+        <v>1547</v>
       </c>
       <c r="C836" t="s">
-        <v>1569</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="837" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A837" t="s">
-        <v>1570</v>
+        <v>1567</v>
       </c>
       <c r="B837" t="s">
-        <v>1386</v>
+        <v>1568</v>
       </c>
       <c r="C837" t="s">
-        <v>1571</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="838" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A838" t="s">
-        <v>1572</v>
+        <v>1569</v>
       </c>
       <c r="B838" t="s">
-        <v>1573</v>
+        <v>1385</v>
       </c>
       <c r="C838" t="s">
-        <v>1574</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="839" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A839" t="s">
-        <v>1575</v>
+        <v>1571</v>
       </c>
       <c r="B839" t="s">
-        <v>1576</v>
+        <v>1572</v>
       </c>
       <c r="C839" t="s">
-        <v>1577</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="840" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A840" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="B840" t="s">
         <v>1575</v>
       </c>
       <c r="C840" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="841" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A841" t="s">
-        <v>1579</v>
+        <v>1575</v>
       </c>
       <c r="B841" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="C841" t="s">
-        <v>1580</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="842" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A842" t="s">
-        <v>1581</v>
+        <v>1578</v>
       </c>
       <c r="B842" t="s">
-        <v>1582</v>
+        <v>1574</v>
       </c>
       <c r="C842" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="843" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A843" t="s">
-        <v>1583</v>
+        <v>1580</v>
       </c>
       <c r="B843" t="s">
-        <v>380</v>
+        <v>1581</v>
       </c>
       <c r="C843" t="s">
-        <v>380</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="844" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A844" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="B844" t="s">
-        <v>1262</v>
+        <v>380</v>
       </c>
       <c r="C844" t="s">
-        <v>1262</v>
+        <v>380</v>
       </c>
     </row>
     <row r="845" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A845" t="s">
-        <v>1585</v>
+        <v>1583</v>
       </c>
       <c r="B845" t="s">
-        <v>1586</v>
+        <v>1261</v>
       </c>
       <c r="C845" t="s">
-        <v>1586</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="846" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A846" t="s">
-        <v>1587</v>
+        <v>1584</v>
       </c>
       <c r="B846" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="C846" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="847" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A847" t="s">
-        <v>1588</v>
+        <v>1586</v>
       </c>
       <c r="B847" t="s">
-        <v>1589</v>
+        <v>1585</v>
       </c>
       <c r="C847" t="s">
-        <v>1589</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="848" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A848" t="s">
-        <v>1590</v>
+        <v>1587</v>
       </c>
       <c r="B848" t="s">
-        <v>1546</v>
+        <v>1588</v>
       </c>
       <c r="C848" t="s">
-        <v>1546</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="849" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A849" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
       <c r="B849" t="s">
-        <v>1592</v>
+        <v>1545</v>
       </c>
       <c r="C849" t="s">
-        <v>1593</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="850" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A850" t="s">
-        <v>1594</v>
+        <v>1590</v>
       </c>
       <c r="B850" t="s">
-        <v>414</v>
+        <v>1591</v>
       </c>
       <c r="C850" t="s">
-        <v>414</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="851" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A851" t="s">
-        <v>1595</v>
+        <v>1593</v>
       </c>
       <c r="B851" t="s">
-        <v>1596</v>
+        <v>414</v>
       </c>
       <c r="C851" t="s">
-        <v>1596</v>
+        <v>414</v>
       </c>
     </row>
     <row r="852" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A852" t="s">
-        <v>1597</v>
+        <v>1594</v>
       </c>
       <c r="B852" t="s">
-        <v>1114</v>
+        <v>1595</v>
       </c>
       <c r="C852" t="s">
-        <v>1598</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="853" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A853" t="s">
-        <v>1599</v>
+        <v>1596</v>
       </c>
       <c r="B853" t="s">
-        <v>1600</v>
+        <v>1114</v>
       </c>
       <c r="C853" t="s">
-        <v>1600</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="854" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A854" t="s">
-        <v>1601</v>
+        <v>1598</v>
       </c>
       <c r="B854" t="s">
-        <v>1602</v>
+        <v>1599</v>
       </c>
       <c r="C854" t="s">
-        <v>1603</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="855" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A855" t="s">
-        <v>1604</v>
+        <v>1600</v>
       </c>
       <c r="B855" t="s">
-        <v>87</v>
+        <v>1601</v>
       </c>
       <c r="C855" t="s">
-        <v>1605</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="856" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A856" t="s">
-        <v>1606</v>
+        <v>1603</v>
       </c>
       <c r="B856" t="s">
-        <v>491</v>
+        <v>87</v>
       </c>
       <c r="C856" t="s">
-        <v>1607</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="857" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A857" t="s">
-        <v>1608</v>
+        <v>1605</v>
       </c>
       <c r="B857" t="s">
-        <v>180</v>
+        <v>491</v>
       </c>
       <c r="C857" t="s">
-        <v>180</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="858" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A858" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
       <c r="B858" t="s">
-        <v>1610</v>
+        <v>180</v>
       </c>
       <c r="C858" t="s">
-        <v>1610</v>
+        <v>180</v>
       </c>
     </row>
     <row r="859" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A859" t="s">
-        <v>1611</v>
+        <v>1608</v>
       </c>
       <c r="B859" t="s">
-        <v>1612</v>
+        <v>1609</v>
       </c>
       <c r="C859" t="s">
-        <v>1612</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="860" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A860" t="s">
-        <v>1613</v>
+        <v>1610</v>
       </c>
       <c r="B860" t="s">
-        <v>1009</v>
+        <v>1611</v>
       </c>
       <c r="C860" t="s">
-        <v>1009</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="861" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A861" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="B861" t="s">
-        <v>1247</v>
+        <v>1009</v>
       </c>
       <c r="C861" t="s">
-        <v>1615</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="862" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A862" t="s">
-        <v>1616</v>
+        <v>1613</v>
       </c>
       <c r="B862" t="s">
-        <v>1617</v>
+        <v>1246</v>
       </c>
       <c r="C862" t="s">
-        <v>1617</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="863" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A863" t="s">
-        <v>1618</v>
+        <v>1615</v>
       </c>
       <c r="B863" t="s">
         <v>1616</v>
@@ -15948,150 +15955,150 @@
     </row>
     <row r="864" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A864" t="s">
-        <v>1619</v>
+        <v>1617</v>
       </c>
       <c r="B864" t="s">
-        <v>1620</v>
+        <v>1615</v>
       </c>
       <c r="C864" t="s">
-        <v>1620</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="865" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A865" t="s">
-        <v>1621</v>
+        <v>1618</v>
       </c>
       <c r="B865" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
       <c r="C865" t="s">
-        <v>1623</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="866" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A866" t="s">
-        <v>1624</v>
+        <v>1620</v>
       </c>
       <c r="B866" t="s">
-        <v>1625</v>
+        <v>1621</v>
       </c>
       <c r="C866" t="s">
-        <v>1625</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="867" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A867" t="s">
-        <v>1626</v>
+        <v>1623</v>
       </c>
       <c r="B867" t="s">
-        <v>1627</v>
+        <v>1624</v>
       </c>
       <c r="C867" t="s">
-        <v>1627</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="868" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A868" t="s">
-        <v>1622</v>
+        <v>1625</v>
       </c>
       <c r="B868" t="s">
-        <v>1621</v>
+        <v>1626</v>
       </c>
       <c r="C868" t="s">
-        <v>1628</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="869" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A869" t="s">
-        <v>1629</v>
+        <v>1621</v>
       </c>
       <c r="B869" t="s">
-        <v>17</v>
+        <v>1620</v>
       </c>
       <c r="C869" t="s">
-        <v>17</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="870" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A870" t="s">
-        <v>1630</v>
+        <v>1628</v>
       </c>
       <c r="B870" t="s">
-        <v>1631</v>
+        <v>17</v>
       </c>
       <c r="C870" t="s">
-        <v>1632</v>
+        <v>17</v>
       </c>
     </row>
     <row r="871" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A871" t="s">
-        <v>1633</v>
+        <v>1629</v>
       </c>
       <c r="B871" t="s">
-        <v>21</v>
+        <v>1630</v>
       </c>
       <c r="C871" t="s">
-        <v>21</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="872" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A872" t="s">
+        <v>1632</v>
+      </c>
+      <c r="B872" t="s">
         <v>21</v>
       </c>
-      <c r="B872" t="s">
-        <v>1480</v>
-      </c>
       <c r="C872" t="s">
-        <v>1480</v>
+        <v>21</v>
       </c>
     </row>
     <row r="873" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A873" t="s">
-        <v>1634</v>
+        <v>21</v>
       </c>
       <c r="B873" t="s">
-        <v>12</v>
+        <v>1479</v>
       </c>
       <c r="C873" t="s">
-        <v>1635</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="874" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A874" t="s">
-        <v>1636</v>
+        <v>1633</v>
       </c>
       <c r="B874" t="s">
-        <v>1637</v>
+        <v>12</v>
       </c>
       <c r="C874" t="s">
-        <v>1638</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="875" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A875" t="s">
-        <v>1631</v>
+        <v>1635</v>
       </c>
       <c r="B875" t="s">
-        <v>1606</v>
+        <v>1636</v>
       </c>
       <c r="C875" t="s">
-        <v>1606</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="876" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A876" t="s">
-        <v>1639</v>
+        <v>1630</v>
       </c>
       <c r="B876" t="s">
-        <v>1640</v>
+        <v>1605</v>
       </c>
       <c r="C876" t="s">
-        <v>1640</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="877" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A877" t="s">
-        <v>1640</v>
+        <v>1638</v>
       </c>
       <c r="B877" t="s">
         <v>1639</v>
@@ -16102,453 +16109,453 @@
     </row>
     <row r="878" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A878" t="s">
-        <v>1641</v>
+        <v>1639</v>
       </c>
       <c r="B878" t="s">
-        <v>1642</v>
+        <v>1638</v>
       </c>
       <c r="C878" t="s">
-        <v>1643</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="879" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A879" t="s">
-        <v>1644</v>
+        <v>1640</v>
       </c>
       <c r="B879" t="s">
+        <v>1641</v>
+      </c>
+      <c r="C879" t="s">
         <v>1642</v>
-      </c>
-      <c r="C879" t="s">
-        <v>1645</v>
       </c>
     </row>
     <row r="880" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A880" t="s">
-        <v>1646</v>
+        <v>1643</v>
       </c>
       <c r="B880" t="s">
-        <v>823</v>
+        <v>1641</v>
       </c>
       <c r="C880" t="s">
-        <v>823</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="881" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A881" t="s">
-        <v>1647</v>
+        <v>1645</v>
       </c>
       <c r="B881" t="s">
-        <v>1648</v>
+        <v>823</v>
       </c>
       <c r="C881" t="s">
-        <v>1649</v>
+        <v>823</v>
       </c>
     </row>
     <row r="882" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A882" t="s">
-        <v>1650</v>
+        <v>1646</v>
       </c>
       <c r="B882" t="s">
-        <v>1651</v>
+        <v>1647</v>
       </c>
       <c r="C882" t="s">
-        <v>1651</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="883" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A883" t="s">
-        <v>1652</v>
+        <v>1649</v>
       </c>
       <c r="B883" t="s">
-        <v>987</v>
+        <v>1650</v>
       </c>
       <c r="C883" t="s">
-        <v>987</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="884" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A884" t="s">
-        <v>1653</v>
+        <v>1651</v>
       </c>
       <c r="B884" t="s">
         <v>987</v>
       </c>
       <c r="C884" t="s">
-        <v>1654</v>
+        <v>987</v>
       </c>
     </row>
     <row r="885" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A885" t="s">
+        <v>1652</v>
+      </c>
+      <c r="B885" t="s">
         <v>987</v>
       </c>
-      <c r="B885" t="s">
-        <v>986</v>
-      </c>
       <c r="C885" t="s">
-        <v>986</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="886" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A886" t="s">
-        <v>1655</v>
+        <v>987</v>
       </c>
       <c r="B886" t="s">
-        <v>1262</v>
+        <v>986</v>
       </c>
       <c r="C886" t="s">
-        <v>1262</v>
+        <v>986</v>
       </c>
     </row>
     <row r="887" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A887" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
       <c r="B887" t="s">
-        <v>1657</v>
+        <v>1261</v>
       </c>
       <c r="C887" t="s">
-        <v>1657</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="888" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A888" t="s">
-        <v>801</v>
+        <v>1655</v>
       </c>
       <c r="B888" t="s">
-        <v>800</v>
+        <v>1656</v>
       </c>
       <c r="C888" t="s">
-        <v>1658</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="889" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A889" t="s">
-        <v>1659</v>
+        <v>801</v>
       </c>
       <c r="B889" t="s">
-        <v>1660</v>
+        <v>800</v>
       </c>
       <c r="C889" t="s">
-        <v>1660</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="890" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A890" t="s">
-        <v>1661</v>
+        <v>1658</v>
       </c>
       <c r="B890" t="s">
-        <v>1662</v>
+        <v>1659</v>
       </c>
       <c r="C890" t="s">
-        <v>1663</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="891" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A891" t="s">
-        <v>1664</v>
+        <v>1660</v>
       </c>
       <c r="B891" t="s">
-        <v>358</v>
+        <v>1661</v>
       </c>
       <c r="C891" t="s">
-        <v>1665</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="892" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A892" t="s">
-        <v>820</v>
+        <v>1663</v>
       </c>
       <c r="B892" t="s">
-        <v>345</v>
+        <v>358</v>
       </c>
       <c r="C892" t="s">
-        <v>1666</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="893" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A893" t="s">
-        <v>1667</v>
+        <v>820</v>
       </c>
       <c r="B893" t="s">
-        <v>1668</v>
+        <v>345</v>
       </c>
       <c r="C893" t="s">
-        <v>1668</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="894" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A894" t="s">
-        <v>1669</v>
+        <v>1666</v>
       </c>
       <c r="B894" t="s">
-        <v>1027</v>
+        <v>1667</v>
       </c>
       <c r="C894" t="s">
-        <v>1670</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="895" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A895" t="s">
-        <v>1671</v>
+        <v>1668</v>
       </c>
       <c r="B895" t="s">
-        <v>823</v>
+        <v>1027</v>
       </c>
       <c r="C895" t="s">
-        <v>1672</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="896" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A896" t="s">
-        <v>1673</v>
+        <v>1670</v>
       </c>
       <c r="B896" t="s">
-        <v>1348</v>
+        <v>823</v>
       </c>
       <c r="C896" t="s">
-        <v>1674</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="897" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A897" t="s">
-        <v>892</v>
+        <v>1672</v>
       </c>
       <c r="B897" t="s">
-        <v>1675</v>
+        <v>1347</v>
       </c>
       <c r="C897" t="s">
-        <v>1676</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="898" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A898" t="s">
-        <v>1677</v>
+        <v>892</v>
       </c>
       <c r="B898" t="s">
+        <v>1674</v>
+      </c>
+      <c r="C898" t="s">
         <v>1675</v>
-      </c>
-      <c r="C898" t="s">
-        <v>1678</v>
       </c>
     </row>
     <row r="899" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A899" t="s">
-        <v>1679</v>
+        <v>1676</v>
       </c>
       <c r="B899" t="s">
-        <v>304</v>
+        <v>1674</v>
       </c>
       <c r="C899" t="s">
-        <v>304</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="900" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A900" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
       <c r="B900" t="s">
-        <v>1681</v>
+        <v>304</v>
       </c>
       <c r="C900" t="s">
-        <v>1681</v>
+        <v>304</v>
       </c>
     </row>
     <row r="901" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A901" t="s">
-        <v>1682</v>
+        <v>1679</v>
       </c>
       <c r="B901" t="s">
-        <v>1683</v>
+        <v>1680</v>
       </c>
       <c r="C901" t="s">
-        <v>1683</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="902" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A902" t="s">
-        <v>1684</v>
+        <v>1681</v>
       </c>
       <c r="B902" t="s">
-        <v>1685</v>
+        <v>1682</v>
       </c>
       <c r="C902" t="s">
-        <v>1686</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="903" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A903" t="s">
-        <v>1685</v>
+        <v>1683</v>
       </c>
       <c r="B903" t="s">
         <v>1684</v>
       </c>
       <c r="C903" t="s">
-        <v>1687</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="904" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A904" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
       <c r="B904" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="C904" t="s">
-        <v>1684</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="905" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A905" t="s">
-        <v>1689</v>
+        <v>1687</v>
       </c>
       <c r="B905" t="s">
-        <v>1685</v>
+        <v>1683</v>
       </c>
       <c r="C905" t="s">
-        <v>1685</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="906" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A906" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="B906" t="s">
-        <v>1691</v>
+        <v>1684</v>
       </c>
       <c r="C906" t="s">
-        <v>1692</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="907" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A907" t="s">
-        <v>1693</v>
+        <v>1689</v>
       </c>
       <c r="B907" t="s">
-        <v>1685</v>
+        <v>1690</v>
       </c>
       <c r="C907" t="s">
-        <v>1685</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="908" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A908" t="s">
-        <v>476</v>
+        <v>1692</v>
       </c>
       <c r="B908" t="s">
-        <v>1694</v>
+        <v>1684</v>
       </c>
       <c r="C908" t="s">
-        <v>1694</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="909" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A909" t="s">
-        <v>1695</v>
+        <v>476</v>
       </c>
       <c r="B909" t="s">
-        <v>104</v>
+        <v>1693</v>
       </c>
       <c r="C909" t="s">
-        <v>1696</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="910" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A910" t="s">
-        <v>1697</v>
+        <v>1694</v>
       </c>
       <c r="B910" t="s">
-        <v>1698</v>
+        <v>104</v>
       </c>
       <c r="C910" t="s">
-        <v>1698</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="911" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A911" t="s">
-        <v>1699</v>
+        <v>1696</v>
       </c>
       <c r="B911" t="s">
-        <v>1700</v>
+        <v>1697</v>
       </c>
       <c r="C911" t="s">
-        <v>1701</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="912" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A912" t="s">
-        <v>1702</v>
+        <v>1698</v>
       </c>
       <c r="B912" t="s">
-        <v>122</v>
+        <v>1699</v>
       </c>
       <c r="C912" t="s">
-        <v>1703</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="913" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A913" t="s">
-        <v>1704</v>
+        <v>1701</v>
       </c>
       <c r="B913" t="s">
-        <v>1705</v>
+        <v>122</v>
       </c>
       <c r="C913" t="s">
-        <v>1705</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="914" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A914" t="s">
-        <v>1706</v>
+        <v>1703</v>
       </c>
       <c r="B914" t="s">
-        <v>1707</v>
+        <v>1704</v>
       </c>
       <c r="C914" t="s">
-        <v>1708</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="915" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A915" t="s">
-        <v>1709</v>
+        <v>1705</v>
       </c>
       <c r="B915" t="s">
-        <v>1710</v>
+        <v>1706</v>
       </c>
       <c r="C915" t="s">
-        <v>1710</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="916" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A916" t="s">
-        <v>1711</v>
+        <v>1708</v>
       </c>
       <c r="B916" t="s">
-        <v>1712</v>
+        <v>1709</v>
       </c>
       <c r="C916" t="s">
-        <v>1713</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="917" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A917" t="s">
-        <v>1714</v>
+        <v>1710</v>
       </c>
       <c r="B917" t="s">
-        <v>1715</v>
+        <v>1711</v>
       </c>
       <c r="C917" t="s">
-        <v>1715</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="918" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A918" t="s">
-        <v>1716</v>
+        <v>1713</v>
       </c>
       <c r="B918" t="s">
-        <v>1712</v>
+        <v>1714</v>
       </c>
       <c r="C918" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="919" spans="1:3" x14ac:dyDescent="0.2">
@@ -16556,686 +16563,686 @@
         <v>1715</v>
       </c>
       <c r="B919" t="s">
-        <v>1714</v>
+        <v>1711</v>
       </c>
       <c r="C919" t="s">
-        <v>1714</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="920" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A920" t="s">
-        <v>1717</v>
+        <v>1714</v>
       </c>
       <c r="B920" t="s">
-        <v>1718</v>
+        <v>1713</v>
       </c>
       <c r="C920" t="s">
-        <v>1719</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="921" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A921" t="s">
-        <v>1720</v>
+        <v>1716</v>
       </c>
       <c r="B921" t="s">
-        <v>1721</v>
+        <v>1717</v>
       </c>
       <c r="C921" t="s">
-        <v>1722</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="922" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A922" t="s">
-        <v>1723</v>
+        <v>1719</v>
       </c>
       <c r="B922" t="s">
-        <v>1184</v>
+        <v>1720</v>
       </c>
       <c r="C922" t="s">
-        <v>1184</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="923" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A923" t="s">
-        <v>1724</v>
+        <v>1722</v>
       </c>
       <c r="B923" t="s">
-        <v>1725</v>
+        <v>1183</v>
       </c>
       <c r="C923" t="s">
-        <v>1725</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="924" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A924" t="s">
-        <v>1726</v>
+        <v>1723</v>
       </c>
       <c r="B924" t="s">
-        <v>1457</v>
+        <v>1724</v>
       </c>
       <c r="C924" t="s">
-        <v>1457</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="925" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A925" t="s">
-        <v>1727</v>
+        <v>1725</v>
       </c>
       <c r="B925" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="C925" t="s">
-        <v>1728</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="926" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A926" t="s">
-        <v>1729</v>
+        <v>1726</v>
       </c>
       <c r="B926" t="s">
-        <v>1730</v>
+        <v>1456</v>
       </c>
       <c r="C926" t="s">
-        <v>1731</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="927" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A927" t="s">
-        <v>1457</v>
+        <v>1728</v>
       </c>
       <c r="B927" t="s">
-        <v>1727</v>
+        <v>1729</v>
       </c>
       <c r="C927" t="s">
-        <v>1727</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="928" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A928" t="s">
-        <v>1732</v>
+        <v>1456</v>
       </c>
       <c r="B928" t="s">
-        <v>1733</v>
+        <v>1726</v>
       </c>
       <c r="C928" t="s">
-        <v>1733</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="929" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A929" t="s">
-        <v>1734</v>
+        <v>1731</v>
       </c>
       <c r="B929" t="s">
-        <v>414</v>
+        <v>1732</v>
       </c>
       <c r="C929" t="s">
-        <v>414</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="930" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A930" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
       <c r="B930" t="s">
-        <v>17</v>
+        <v>414</v>
       </c>
       <c r="C930" t="s">
-        <v>1736</v>
+        <v>414</v>
       </c>
     </row>
     <row r="931" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A931" t="s">
-        <v>1737</v>
+        <v>1734</v>
       </c>
       <c r="B931" t="s">
-        <v>1738</v>
+        <v>17</v>
       </c>
       <c r="C931" t="s">
-        <v>1739</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="932" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A932" t="s">
-        <v>1740</v>
+        <v>1736</v>
       </c>
       <c r="B932" t="s">
-        <v>1741</v>
+        <v>1737</v>
       </c>
       <c r="C932" t="s">
-        <v>1742</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="933" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A933" t="s">
-        <v>1743</v>
+        <v>1739</v>
       </c>
       <c r="B933" t="s">
-        <v>1558</v>
+        <v>1740</v>
       </c>
       <c r="C933" t="s">
-        <v>1744</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="934" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A934" t="s">
-        <v>1401</v>
+        <v>1742</v>
       </c>
       <c r="B934" t="s">
-        <v>1745</v>
+        <v>1557</v>
       </c>
       <c r="C934" t="s">
-        <v>1746</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="935" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A935" t="s">
-        <v>1741</v>
+        <v>1400</v>
       </c>
       <c r="B935" t="s">
-        <v>1740</v>
+        <v>1744</v>
       </c>
       <c r="C935" t="s">
-        <v>1747</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="936" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A936" t="s">
-        <v>1748</v>
+        <v>1740</v>
       </c>
       <c r="B936" t="s">
-        <v>1558</v>
+        <v>1739</v>
       </c>
       <c r="C936" t="s">
-        <v>1558</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="937" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A937" t="s">
-        <v>1558</v>
+        <v>1747</v>
       </c>
       <c r="B937" t="s">
-        <v>1401</v>
+        <v>1557</v>
       </c>
       <c r="C937" t="s">
-        <v>1401</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="938" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A938" t="s">
-        <v>1749</v>
+        <v>1557</v>
       </c>
       <c r="B938" t="s">
-        <v>1750</v>
+        <v>1400</v>
       </c>
       <c r="C938" t="s">
-        <v>1751</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="939" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A939" t="s">
-        <v>1752</v>
+        <v>1748</v>
       </c>
       <c r="B939" t="s">
+        <v>1749</v>
+      </c>
+      <c r="C939" t="s">
         <v>1750</v>
-      </c>
-      <c r="C939" t="s">
-        <v>1753</v>
       </c>
     </row>
     <row r="940" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A940" t="s">
-        <v>1754</v>
+        <v>1751</v>
       </c>
       <c r="B940" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="C940" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="941" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A941" t="s">
-        <v>1755</v>
+        <v>1753</v>
       </c>
       <c r="B941" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="C941" t="s">
-        <v>1750</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="942" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A942" t="s">
-        <v>1154</v>
+        <v>1754</v>
       </c>
       <c r="B942" t="s">
-        <v>1538</v>
+        <v>1749</v>
       </c>
       <c r="C942" t="s">
-        <v>1538</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="943" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A943" t="s">
-        <v>1756</v>
+        <v>1153</v>
       </c>
       <c r="B943" t="s">
-        <v>1757</v>
+        <v>1537</v>
       </c>
       <c r="C943" t="s">
-        <v>1757</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="944" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A944" t="s">
-        <v>1758</v>
+        <v>1755</v>
       </c>
       <c r="B944" t="s">
-        <v>1759</v>
+        <v>1756</v>
       </c>
       <c r="C944" t="s">
-        <v>1759</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="945" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A945" t="s">
-        <v>1760</v>
+        <v>1757</v>
       </c>
       <c r="B945" t="s">
-        <v>1761</v>
+        <v>1758</v>
       </c>
       <c r="C945" t="s">
-        <v>1761</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="946" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A946" t="s">
-        <v>1762</v>
+        <v>1759</v>
       </c>
       <c r="B946" t="s">
-        <v>1757</v>
+        <v>1760</v>
       </c>
       <c r="C946" t="s">
-        <v>1757</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="947" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A947" t="s">
-        <v>1763</v>
+        <v>1761</v>
       </c>
       <c r="B947" t="s">
-        <v>17</v>
+        <v>1756</v>
       </c>
       <c r="C947" t="s">
-        <v>1764</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="948" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A948" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
       <c r="B948" t="s">
-        <v>823</v>
+        <v>17</v>
       </c>
       <c r="C948" t="s">
-        <v>823</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="949" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A949" t="s">
-        <v>1766</v>
+        <v>1764</v>
       </c>
       <c r="B949" t="s">
-        <v>1767</v>
+        <v>823</v>
       </c>
       <c r="C949" t="s">
-        <v>1768</v>
+        <v>823</v>
       </c>
     </row>
     <row r="950" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A950" t="s">
-        <v>1769</v>
+        <v>1765</v>
       </c>
       <c r="B950" t="s">
-        <v>1770</v>
+        <v>1766</v>
       </c>
       <c r="C950" t="s">
-        <v>1770</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="951" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A951" t="s">
-        <v>1770</v>
+        <v>1768</v>
       </c>
       <c r="B951" t="s">
         <v>1769</v>
       </c>
       <c r="C951" t="s">
-        <v>1771</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="952" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A952" t="s">
-        <v>1772</v>
+        <v>1769</v>
       </c>
       <c r="B952" t="s">
-        <v>1773</v>
+        <v>1768</v>
       </c>
       <c r="C952" t="s">
-        <v>1773</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="953" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A953" t="s">
-        <v>1774</v>
+        <v>1771</v>
       </c>
       <c r="B953" t="s">
-        <v>894</v>
+        <v>1772</v>
       </c>
       <c r="C953" t="s">
-        <v>894</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="954" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A954" t="s">
-        <v>1775</v>
+        <v>1773</v>
       </c>
       <c r="B954" t="s">
-        <v>1776</v>
+        <v>894</v>
       </c>
       <c r="C954" t="s">
-        <v>1777</v>
+        <v>894</v>
       </c>
     </row>
     <row r="955" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A955" t="s">
-        <v>1778</v>
+        <v>1774</v>
       </c>
       <c r="B955" t="s">
-        <v>1779</v>
+        <v>1775</v>
       </c>
       <c r="C955" t="s">
-        <v>1780</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="956" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A956" t="s">
-        <v>375</v>
+        <v>1777</v>
       </c>
       <c r="B956" t="s">
-        <v>1781</v>
+        <v>1778</v>
       </c>
       <c r="C956" t="s">
-        <v>1781</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="957" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A957" t="s">
-        <v>1782</v>
+        <v>375</v>
       </c>
       <c r="B957" t="s">
-        <v>1783</v>
+        <v>1780</v>
       </c>
       <c r="C957" t="s">
-        <v>1783</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="958" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A958" t="s">
-        <v>1784</v>
+        <v>1781</v>
       </c>
       <c r="B958" t="s">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="C958" t="s">
-        <v>1785</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="959" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A959" t="s">
-        <v>1786</v>
+        <v>1783</v>
       </c>
       <c r="B959" t="s">
-        <v>87</v>
+        <v>1777</v>
       </c>
       <c r="C959" t="s">
-        <v>220</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="960" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A960" t="s">
-        <v>1787</v>
+        <v>1785</v>
       </c>
       <c r="B960" t="s">
-        <v>1778</v>
+        <v>87</v>
       </c>
       <c r="C960" t="s">
-        <v>1778</v>
+        <v>220</v>
       </c>
     </row>
     <row r="961" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A961" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="B961" t="s">
-        <v>1789</v>
+        <v>1777</v>
       </c>
       <c r="C961" t="s">
-        <v>1790</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="962" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A962" t="s">
-        <v>1779</v>
+        <v>1787</v>
       </c>
       <c r="B962" t="s">
-        <v>1778</v>
+        <v>1788</v>
       </c>
       <c r="C962" t="s">
-        <v>1778</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="963" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A963" t="s">
-        <v>1791</v>
+        <v>1778</v>
       </c>
       <c r="B963" t="s">
-        <v>1781</v>
+        <v>1777</v>
       </c>
       <c r="C963" t="s">
-        <v>1781</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="964" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A964" t="s">
-        <v>1792</v>
+        <v>1790</v>
       </c>
       <c r="B964" t="s">
-        <v>1793</v>
+        <v>1780</v>
       </c>
       <c r="C964" t="s">
-        <v>1793</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="965" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A965" t="s">
-        <v>1789</v>
+        <v>1791</v>
       </c>
       <c r="B965" t="s">
-        <v>1794</v>
+        <v>1792</v>
       </c>
       <c r="C965" t="s">
-        <v>1794</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="966" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A966" t="s">
-        <v>1795</v>
+        <v>1788</v>
       </c>
       <c r="B966" t="s">
-        <v>1796</v>
+        <v>1793</v>
       </c>
       <c r="C966" t="s">
-        <v>1796</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="967" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A967" t="s">
-        <v>1797</v>
+        <v>1794</v>
       </c>
       <c r="B967" t="s">
-        <v>1798</v>
+        <v>1795</v>
       </c>
       <c r="C967" t="s">
-        <v>1798</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="968" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A968" t="s">
-        <v>1799</v>
+        <v>1796</v>
       </c>
       <c r="B968" t="s">
-        <v>1800</v>
+        <v>1797</v>
       </c>
       <c r="C968" t="s">
-        <v>1800</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="969" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A969" t="s">
-        <v>1801</v>
+        <v>1798</v>
       </c>
       <c r="B969" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="C969" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="970" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A970" t="s">
-        <v>1803</v>
+        <v>1800</v>
       </c>
       <c r="B970" t="s">
-        <v>1253</v>
+        <v>1801</v>
       </c>
       <c r="C970" t="s">
-        <v>1804</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="971" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A971" t="s">
-        <v>1805</v>
+        <v>1802</v>
       </c>
       <c r="B971" t="s">
-        <v>211</v>
+        <v>1252</v>
       </c>
       <c r="C971" t="s">
-        <v>1806</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="972" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A972" t="s">
-        <v>1807</v>
+        <v>1804</v>
       </c>
       <c r="B972" t="s">
-        <v>1808</v>
+        <v>211</v>
       </c>
       <c r="C972" t="s">
-        <v>1808</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="973" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A973" t="s">
-        <v>1809</v>
+        <v>1806</v>
       </c>
       <c r="B973" t="s">
-        <v>1810</v>
+        <v>1807</v>
       </c>
       <c r="C973" t="s">
-        <v>1811</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="974" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A974" t="s">
-        <v>1812</v>
+        <v>1808</v>
       </c>
       <c r="B974" t="s">
         <v>1809</v>
       </c>
       <c r="C974" t="s">
-        <v>1809</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="975" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A975" t="s">
-        <v>1813</v>
+        <v>1811</v>
       </c>
       <c r="B975" t="s">
-        <v>1270</v>
+        <v>1808</v>
       </c>
       <c r="C975" t="s">
-        <v>1270</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="976" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A976" t="s">
-        <v>1814</v>
+        <v>1812</v>
       </c>
       <c r="B976" t="s">
-        <v>1815</v>
+        <v>1269</v>
       </c>
       <c r="C976" t="s">
-        <v>1815</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="977" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A977" t="s">
-        <v>1816</v>
+        <v>1813</v>
       </c>
       <c r="B977" t="s">
-        <v>1817</v>
+        <v>1814</v>
       </c>
       <c r="C977" t="s">
-        <v>1817</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="978" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A978" t="s">
-        <v>1818</v>
+        <v>1815</v>
       </c>
       <c r="B978" t="s">
-        <v>1819</v>
+        <v>1816</v>
       </c>
       <c r="C978" t="s">
-        <v>1820</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="979" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A979" t="s">
-        <v>1821</v>
+        <v>1817</v>
       </c>
       <c r="B979" t="s">
-        <v>1822</v>
+        <v>1818</v>
       </c>
       <c r="C979" t="s">
-        <v>1822</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="980" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A980" t="s">
-        <v>1823</v>
+        <v>1820</v>
       </c>
       <c r="B980" t="s">
-        <v>1824</v>
+        <v>1821</v>
       </c>
       <c r="C980" t="s">
-        <v>1824</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="981" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A981" t="s">
-        <v>1824</v>
+        <v>1822</v>
       </c>
       <c r="B981" t="s">
         <v>1823</v>
@@ -17246,57 +17253,57 @@
     </row>
     <row r="982" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A982" t="s">
-        <v>1825</v>
+        <v>1823</v>
       </c>
       <c r="B982" t="s">
-        <v>80</v>
+        <v>1822</v>
       </c>
       <c r="C982" t="s">
-        <v>1826</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="983" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A983" t="s">
-        <v>1827</v>
+        <v>1824</v>
       </c>
       <c r="B983" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C983" t="s">
-        <v>1828</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="984" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A984" t="s">
-        <v>1829</v>
+        <v>1826</v>
       </c>
       <c r="B984" t="s">
-        <v>1830</v>
+        <v>82</v>
       </c>
       <c r="C984" t="s">
-        <v>1830</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="985" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A985" t="s">
-        <v>1830</v>
+        <v>1828</v>
       </c>
       <c r="B985" t="s">
-        <v>1831</v>
+        <v>1829</v>
       </c>
       <c r="C985" t="s">
-        <v>1831</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="986" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A986" t="s">
-        <v>1832</v>
+        <v>1829</v>
       </c>
       <c r="B986" t="s">
-        <v>1833</v>
+        <v>1830</v>
       </c>
       <c r="C986" t="s">
-        <v>1834</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="987" spans="1:3" x14ac:dyDescent="0.2">
@@ -17304,403 +17311,403 @@
         <v>1831</v>
       </c>
       <c r="B987" t="s">
-        <v>1830</v>
+        <v>1832</v>
       </c>
       <c r="C987" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="988" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A988" t="s">
-        <v>1836</v>
+        <v>1830</v>
       </c>
       <c r="B988" t="s">
-        <v>1837</v>
+        <v>1829</v>
       </c>
       <c r="C988" t="s">
-        <v>1837</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="989" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A989" t="s">
-        <v>1217</v>
+        <v>1835</v>
       </c>
       <c r="B989" t="s">
-        <v>1216</v>
+        <v>1836</v>
       </c>
       <c r="C989" t="s">
-        <v>1216</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="990" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A990" t="s">
-        <v>1838</v>
+        <v>1216</v>
       </c>
       <c r="B990" t="s">
-        <v>1831</v>
+        <v>1215</v>
       </c>
       <c r="C990" t="s">
-        <v>1831</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="991" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A991" t="s">
-        <v>1839</v>
+        <v>1837</v>
       </c>
       <c r="B991" t="s">
-        <v>1840</v>
+        <v>1830</v>
       </c>
       <c r="C991" t="s">
-        <v>1840</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="992" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A992" t="s">
-        <v>1841</v>
+        <v>1838</v>
       </c>
       <c r="B992" t="s">
-        <v>368</v>
+        <v>1839</v>
       </c>
       <c r="C992" t="s">
-        <v>368</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="993" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A993" t="s">
-        <v>1842</v>
+        <v>1840</v>
       </c>
       <c r="B993" t="s">
-        <v>1843</v>
+        <v>368</v>
       </c>
       <c r="C993" t="s">
-        <v>1844</v>
+        <v>368</v>
       </c>
     </row>
     <row r="994" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A994" t="s">
-        <v>1845</v>
+        <v>1841</v>
       </c>
       <c r="B994" t="s">
-        <v>1846</v>
+        <v>1842</v>
       </c>
       <c r="C994" t="s">
-        <v>1846</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="995" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A995" t="s">
-        <v>1847</v>
+        <v>1844</v>
       </c>
       <c r="B995" t="s">
-        <v>323</v>
+        <v>1845</v>
       </c>
       <c r="C995" t="s">
-        <v>323</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="996" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A996" t="s">
-        <v>1848</v>
+        <v>1846</v>
       </c>
       <c r="B996" t="s">
-        <v>1849</v>
+        <v>323</v>
       </c>
       <c r="C996" t="s">
-        <v>1849</v>
+        <v>323</v>
       </c>
     </row>
     <row r="997" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A997" t="s">
-        <v>1850</v>
+        <v>1847</v>
       </c>
       <c r="B997" t="s">
-        <v>987</v>
+        <v>1848</v>
       </c>
       <c r="C997" t="s">
-        <v>987</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="998" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A998" t="s">
-        <v>45</v>
+        <v>1849</v>
       </c>
       <c r="B998" t="s">
-        <v>1851</v>
+        <v>987</v>
       </c>
       <c r="C998" t="s">
-        <v>1851</v>
+        <v>987</v>
       </c>
     </row>
     <row r="999" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A999" t="s">
-        <v>1852</v>
+        <v>45</v>
       </c>
       <c r="B999" t="s">
-        <v>45</v>
+        <v>1850</v>
       </c>
       <c r="C999" t="s">
-        <v>45</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="1000" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1000" t="s">
-        <v>1853</v>
+        <v>1851</v>
       </c>
       <c r="B1000" t="s">
-        <v>1468</v>
+        <v>45</v>
       </c>
       <c r="C1000" t="s">
-        <v>1854</v>
+        <v>45</v>
       </c>
     </row>
     <row r="1001" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1001" t="s">
-        <v>1855</v>
+        <v>1852</v>
       </c>
       <c r="B1001" t="s">
+        <v>1467</v>
+      </c>
+      <c r="C1001" t="s">
         <v>1853</v>
-      </c>
-      <c r="C1001" t="s">
-        <v>1856</v>
       </c>
     </row>
     <row r="1002" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1002" t="s">
-        <v>1857</v>
+        <v>1854</v>
       </c>
       <c r="B1002" t="s">
-        <v>1858</v>
+        <v>1852</v>
       </c>
       <c r="C1002" t="s">
-        <v>1858</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="1003" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1003" t="s">
-        <v>882</v>
+        <v>1856</v>
       </c>
       <c r="B1003" t="s">
-        <v>1859</v>
+        <v>1857</v>
       </c>
       <c r="C1003" t="s">
-        <v>1860</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="1004" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1004" t="s">
-        <v>1861</v>
+        <v>882</v>
       </c>
       <c r="B1004" t="s">
-        <v>1862</v>
+        <v>1858</v>
       </c>
       <c r="C1004" t="s">
-        <v>1863</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="1005" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1005" t="s">
-        <v>1864</v>
+        <v>1860</v>
       </c>
       <c r="B1005" t="s">
-        <v>1865</v>
+        <v>1861</v>
       </c>
       <c r="C1005" t="s">
-        <v>1865</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="1006" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1006" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="B1006" t="s">
-        <v>1861</v>
+        <v>1864</v>
       </c>
       <c r="C1006" t="s">
-        <v>1866</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="1007" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1007" t="s">
-        <v>1867</v>
+        <v>1861</v>
       </c>
       <c r="B1007" t="s">
-        <v>1868</v>
+        <v>1860</v>
       </c>
       <c r="C1007" t="s">
-        <v>1868</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="1008" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1008" t="s">
-        <v>1869</v>
+        <v>1866</v>
       </c>
       <c r="B1008" t="s">
-        <v>1870</v>
+        <v>1867</v>
       </c>
       <c r="C1008" t="s">
-        <v>1871</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="1009" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1009" t="s">
-        <v>468</v>
+        <v>1868</v>
       </c>
       <c r="B1009" t="s">
-        <v>9</v>
+        <v>1869</v>
       </c>
       <c r="C1009" t="s">
-        <v>1872</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="1010" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1010" t="s">
-        <v>1873</v>
+        <v>468</v>
       </c>
       <c r="B1010" t="s">
-        <v>498</v>
+        <v>9</v>
       </c>
       <c r="C1010" t="s">
-        <v>1874</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="1011" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1011" t="s">
-        <v>1875</v>
+        <v>1872</v>
       </c>
       <c r="B1011" t="s">
-        <v>9</v>
+        <v>498</v>
       </c>
       <c r="C1011" t="s">
-        <v>1872</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="1012" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1012" t="s">
-        <v>1876</v>
+        <v>1874</v>
       </c>
       <c r="B1012" t="s">
-        <v>1073</v>
+        <v>9</v>
       </c>
       <c r="C1012" t="s">
-        <v>1877</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="1013" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1013" t="s">
-        <v>1878</v>
+        <v>1875</v>
       </c>
       <c r="B1013" t="s">
-        <v>1079</v>
+        <v>1073</v>
       </c>
       <c r="C1013" t="s">
-        <v>1879</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="1014" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1014" t="s">
-        <v>1880</v>
+        <v>1877</v>
       </c>
       <c r="B1014" t="s">
-        <v>1881</v>
+        <v>1079</v>
       </c>
       <c r="C1014" t="s">
-        <v>1882</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="1015" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1015" t="s">
-        <v>1883</v>
+        <v>1879</v>
       </c>
       <c r="B1015" t="s">
-        <v>1884</v>
+        <v>1880</v>
       </c>
       <c r="C1015" t="s">
-        <v>1884</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="1016" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1016" t="s">
-        <v>1885</v>
+        <v>1882</v>
       </c>
       <c r="B1016" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="C1016" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="1017" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1017" t="s">
-        <v>1886</v>
+        <v>1884</v>
       </c>
       <c r="B1017" t="s">
-        <v>1887</v>
+        <v>1883</v>
       </c>
       <c r="C1017" t="s">
-        <v>1887</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="1018" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1018" t="s">
-        <v>1887</v>
+        <v>1885</v>
       </c>
       <c r="B1018" t="s">
-        <v>104</v>
+        <v>1886</v>
       </c>
       <c r="C1018" t="s">
-        <v>1888</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="1019" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1019" t="s">
-        <v>1889</v>
+        <v>1886</v>
       </c>
       <c r="B1019" t="s">
-        <v>1890</v>
+        <v>104</v>
       </c>
       <c r="C1019" t="s">
-        <v>1891</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="1020" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1020" t="s">
-        <v>1892</v>
+        <v>1888</v>
       </c>
       <c r="B1020" t="s">
-        <v>1893</v>
+        <v>1889</v>
       </c>
       <c r="C1020" t="s">
-        <v>1893</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="1021" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1021" t="s">
-        <v>1894</v>
+        <v>1891</v>
       </c>
       <c r="B1021" t="s">
-        <v>1870</v>
+        <v>1892</v>
       </c>
       <c r="C1021" t="s">
-        <v>1895</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="1022" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1022" t="s">
-        <v>1896</v>
+        <v>1893</v>
       </c>
       <c r="B1022" t="s">
-        <v>1897</v>
+        <v>1869</v>
       </c>
       <c r="C1022" t="s">
-        <v>1898</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="1023" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1023" t="s">
-        <v>1899</v>
+        <v>1895</v>
       </c>
       <c r="B1023" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="C1023" t="s">
         <v>1897</v>
@@ -17708,417 +17715,417 @@
     </row>
     <row r="1024" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1024" t="s">
-        <v>1900</v>
+        <v>1898</v>
       </c>
       <c r="B1024" t="s">
-        <v>476</v>
+        <v>1896</v>
       </c>
       <c r="C1024" t="s">
-        <v>1901</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="1025" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1025" t="s">
-        <v>1902</v>
+        <v>1899</v>
       </c>
       <c r="B1025" t="s">
-        <v>1903</v>
+        <v>476</v>
       </c>
       <c r="C1025" t="s">
-        <v>1904</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="1026" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1026" t="s">
-        <v>1905</v>
+        <v>1901</v>
       </c>
       <c r="B1026" t="s">
-        <v>1906</v>
+        <v>1902</v>
       </c>
       <c r="C1026" t="s">
-        <v>1906</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="1027" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1027" t="s">
-        <v>1907</v>
+        <v>1904</v>
       </c>
       <c r="B1027" t="s">
-        <v>1908</v>
+        <v>1905</v>
       </c>
       <c r="C1027" t="s">
-        <v>1909</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="1028" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1028" t="s">
-        <v>1910</v>
+        <v>1906</v>
       </c>
       <c r="B1028" t="s">
-        <v>1911</v>
+        <v>1907</v>
       </c>
       <c r="C1028" t="s">
-        <v>1912</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="1029" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1029" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
       <c r="B1029" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="C1029" t="s">
-        <v>1915</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="1030" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1030" t="s">
-        <v>1916</v>
+        <v>1912</v>
       </c>
       <c r="B1030" t="s">
-        <v>1917</v>
+        <v>1913</v>
       </c>
       <c r="C1030" t="s">
-        <v>1918</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="1031" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1031" t="s">
-        <v>1919</v>
+        <v>1915</v>
       </c>
       <c r="B1031" t="s">
-        <v>885</v>
+        <v>1916</v>
       </c>
       <c r="C1031" t="s">
-        <v>885</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="1032" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1032" t="s">
-        <v>1920</v>
+        <v>1918</v>
       </c>
       <c r="B1032" t="s">
-        <v>1675</v>
+        <v>885</v>
       </c>
       <c r="C1032" t="s">
-        <v>1921</v>
+        <v>885</v>
       </c>
     </row>
     <row r="1033" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1033" t="s">
-        <v>1922</v>
+        <v>1919</v>
       </c>
       <c r="B1033" t="s">
-        <v>1923</v>
+        <v>1674</v>
       </c>
       <c r="C1033" t="s">
-        <v>1924</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="1034" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1034" t="s">
-        <v>1925</v>
+        <v>1921</v>
       </c>
       <c r="B1034" t="s">
-        <v>1146</v>
+        <v>1922</v>
       </c>
       <c r="C1034" t="s">
-        <v>1926</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="1035" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1035" t="s">
-        <v>1927</v>
+        <v>1924</v>
       </c>
       <c r="B1035" t="s">
-        <v>1928</v>
+        <v>1146</v>
       </c>
       <c r="C1035" t="s">
-        <v>1929</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="1036" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1036" t="s">
-        <v>1930</v>
+        <v>1926</v>
       </c>
       <c r="B1036" t="s">
-        <v>726</v>
+        <v>1927</v>
       </c>
       <c r="C1036" t="s">
-        <v>726</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="1037" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1037" t="s">
-        <v>1931</v>
+        <v>1929</v>
       </c>
       <c r="B1037" t="s">
-        <v>1932</v>
+        <v>726</v>
       </c>
       <c r="C1037" t="s">
-        <v>1932</v>
+        <v>726</v>
       </c>
     </row>
     <row r="1038" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1038" t="s">
-        <v>1933</v>
+        <v>1930</v>
       </c>
       <c r="B1038" t="s">
-        <v>1259</v>
+        <v>1931</v>
       </c>
       <c r="C1038" t="s">
-        <v>1259</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="1039" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1039" t="s">
-        <v>1934</v>
+        <v>1932</v>
       </c>
       <c r="B1039" t="s">
-        <v>1935</v>
+        <v>1258</v>
       </c>
       <c r="C1039" t="s">
-        <v>1935</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="1040" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1040" t="s">
-        <v>1935</v>
+        <v>1933</v>
       </c>
       <c r="B1040" t="s">
-        <v>1936</v>
+        <v>1934</v>
       </c>
       <c r="C1040" t="s">
-        <v>1936</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="1041" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1041" t="s">
-        <v>547</v>
+        <v>1934</v>
       </c>
       <c r="B1041" t="s">
-        <v>546</v>
+        <v>1935</v>
       </c>
       <c r="C1041" t="s">
-        <v>546</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="1042" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1042" t="s">
-        <v>1937</v>
+        <v>547</v>
       </c>
       <c r="B1042" t="s">
-        <v>1938</v>
+        <v>546</v>
       </c>
       <c r="C1042" t="s">
-        <v>1939</v>
+        <v>546</v>
       </c>
     </row>
     <row r="1043" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1043" t="s">
-        <v>1940</v>
+        <v>1936</v>
       </c>
       <c r="B1043" t="s">
-        <v>1941</v>
+        <v>1937</v>
       </c>
       <c r="C1043" t="s">
-        <v>1942</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="1044" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1044" t="s">
-        <v>1943</v>
+        <v>1939</v>
       </c>
       <c r="B1044" t="s">
-        <v>89</v>
+        <v>1940</v>
       </c>
       <c r="C1044" t="s">
-        <v>1944</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="1045" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1045" t="s">
-        <v>1945</v>
+        <v>1942</v>
       </c>
       <c r="B1045" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1045" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="1046" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1046" t="s">
-        <v>1946</v>
+        <v>1944</v>
       </c>
       <c r="B1046" t="s">
-        <v>414</v>
+        <v>90</v>
       </c>
       <c r="C1046" t="s">
-        <v>1947</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="1047" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1047" t="s">
-        <v>1948</v>
+        <v>1945</v>
       </c>
       <c r="B1047" t="s">
-        <v>1949</v>
+        <v>414</v>
       </c>
       <c r="C1047" t="s">
-        <v>1950</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="1048" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1048" t="s">
-        <v>1951</v>
+        <v>1947</v>
       </c>
       <c r="B1048" t="s">
-        <v>1952</v>
+        <v>1948</v>
       </c>
       <c r="C1048" t="s">
-        <v>1952</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="1049" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1049" t="s">
-        <v>1953</v>
+        <v>1950</v>
       </c>
       <c r="B1049" t="s">
-        <v>1954</v>
+        <v>1951</v>
       </c>
       <c r="C1049" t="s">
-        <v>1954</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="1050" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1050" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="B1050" t="s">
-        <v>885</v>
+        <v>1953</v>
       </c>
       <c r="C1050" t="s">
-        <v>885</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="1051" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1051" t="s">
-        <v>1956</v>
+        <v>1954</v>
       </c>
       <c r="B1051" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="C1051" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
     </row>
     <row r="1052" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1052" t="s">
-        <v>1957</v>
+        <v>1955</v>
       </c>
       <c r="B1052" t="s">
-        <v>1958</v>
+        <v>887</v>
       </c>
       <c r="C1052" t="s">
-        <v>1959</v>
+        <v>887</v>
       </c>
     </row>
     <row r="1053" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1053" t="s">
-        <v>1960</v>
+        <v>1956</v>
       </c>
       <c r="B1053" t="s">
         <v>1957</v>
       </c>
       <c r="C1053" t="s">
-        <v>1957</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="1054" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1054" t="s">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="B1054" t="s">
-        <v>1962</v>
+        <v>1956</v>
       </c>
       <c r="C1054" t="s">
-        <v>1963</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="1055" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1055" t="s">
-        <v>1964</v>
+        <v>1960</v>
       </c>
       <c r="B1055" t="s">
-        <v>1965</v>
+        <v>1961</v>
       </c>
       <c r="C1055" t="s">
-        <v>1966</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="1056" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1056" t="s">
-        <v>1967</v>
+        <v>1963</v>
       </c>
       <c r="B1056" t="s">
-        <v>864</v>
+        <v>1964</v>
       </c>
       <c r="C1056" t="s">
-        <v>1968</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="1057" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1057" t="s">
-        <v>1969</v>
+        <v>1966</v>
       </c>
       <c r="B1057" t="s">
+        <v>864</v>
+      </c>
+      <c r="C1057" t="s">
         <v>1967</v>
-      </c>
-      <c r="C1057" t="s">
-        <v>1970</v>
       </c>
     </row>
     <row r="1058" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1058" t="s">
-        <v>2008</v>
+        <v>1968</v>
       </c>
       <c r="B1058" t="s">
-        <v>2009</v>
+        <v>1966</v>
       </c>
       <c r="C1058" t="s">
-        <v>2010</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="1059" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1059" t="s">
-        <v>811</v>
+        <v>2007</v>
       </c>
       <c r="B1059" t="s">
-        <v>1971</v>
+        <v>2008</v>
       </c>
       <c r="C1059" t="s">
-        <v>1972</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="1060" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1060" t="s">
-        <v>1973</v>
+        <v>811</v>
       </c>
       <c r="B1060" t="s">
-        <v>1974</v>
+        <v>1970</v>
       </c>
       <c r="C1060" t="s">
-        <v>1975</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="1061" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1061" t="s">
-        <v>1976</v>
+        <v>1972</v>
       </c>
       <c r="B1061" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="C1061" t="s">
         <v>1974</v>
@@ -18126,98 +18133,98 @@
     </row>
     <row r="1062" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1062" t="s">
-        <v>1977</v>
+        <v>1975</v>
       </c>
       <c r="B1062" t="s">
-        <v>823</v>
+        <v>1973</v>
       </c>
       <c r="C1062" t="s">
-        <v>823</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="1063" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1063" t="s">
-        <v>200</v>
+        <v>1976</v>
       </c>
       <c r="B1063" t="s">
-        <v>199</v>
+        <v>823</v>
       </c>
       <c r="C1063" t="s">
-        <v>1978</v>
+        <v>823</v>
       </c>
     </row>
     <row r="1064" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1064" t="s">
-        <v>1979</v>
+        <v>200</v>
       </c>
       <c r="B1064" t="s">
-        <v>1980</v>
+        <v>199</v>
       </c>
       <c r="C1064" t="s">
-        <v>1980</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="1065" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1065" t="s">
-        <v>1981</v>
+        <v>1978</v>
       </c>
       <c r="B1065" t="s">
-        <v>811</v>
+        <v>1979</v>
       </c>
       <c r="C1065" t="s">
-        <v>1982</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="1066" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1066" t="s">
-        <v>1983</v>
+        <v>1980</v>
       </c>
       <c r="B1066" t="s">
+        <v>811</v>
+      </c>
+      <c r="C1066" t="s">
         <v>1981</v>
-      </c>
-      <c r="C1066" t="s">
-        <v>1984</v>
       </c>
     </row>
     <row r="1067" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1067" t="s">
-        <v>1985</v>
+        <v>1982</v>
       </c>
       <c r="B1067" t="s">
-        <v>811</v>
+        <v>1980</v>
       </c>
       <c r="C1067" t="s">
-        <v>1982</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="1068" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1068" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="B1068" t="s">
-        <v>1987</v>
+        <v>811</v>
       </c>
       <c r="C1068" t="s">
-        <v>1987</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="1069" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1069" t="s">
-        <v>1988</v>
+        <v>1985</v>
       </c>
       <c r="B1069" t="s">
-        <v>1989</v>
+        <v>1986</v>
       </c>
       <c r="C1069" t="s">
-        <v>1990</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="1070" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1070" t="s">
-        <v>1991</v>
+        <v>1987</v>
       </c>
       <c r="B1070" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="C1070" t="s">
         <v>1989</v>
@@ -18225,112 +18232,123 @@
     </row>
     <row r="1071" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1071" t="s">
-        <v>652</v>
+        <v>1990</v>
       </c>
       <c r="B1071" t="s">
-        <v>1992</v>
+        <v>1988</v>
       </c>
       <c r="C1071" t="s">
-        <v>1993</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="1072" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1072" t="s">
-        <v>1994</v>
+        <v>652</v>
       </c>
       <c r="B1072" t="s">
-        <v>652</v>
+        <v>1991</v>
       </c>
       <c r="C1072" t="s">
-        <v>652</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="1073" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1073" t="s">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="B1073" t="s">
-        <v>1996</v>
+        <v>652</v>
       </c>
       <c r="C1073" t="s">
-        <v>1997</v>
+        <v>652</v>
       </c>
     </row>
     <row r="1074" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1074" t="s">
-        <v>1992</v>
+        <v>1994</v>
       </c>
       <c r="B1074" t="s">
-        <v>652</v>
+        <v>1995</v>
       </c>
       <c r="C1074" t="s">
-        <v>655</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="1075" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1075" t="s">
-        <v>1998</v>
+        <v>1991</v>
       </c>
       <c r="B1075" t="s">
-        <v>1999</v>
+        <v>652</v>
       </c>
       <c r="C1075" t="s">
-        <v>1999</v>
+        <v>655</v>
       </c>
     </row>
     <row r="1076" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1076" t="s">
-        <v>2000</v>
+        <v>1997</v>
       </c>
       <c r="B1076" t="s">
-        <v>1917</v>
+        <v>1998</v>
       </c>
       <c r="C1076" t="s">
-        <v>2001</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="1077" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1077" t="s">
-        <v>2002</v>
+        <v>1999</v>
       </c>
       <c r="B1077" t="s">
-        <v>2003</v>
+        <v>1916</v>
       </c>
       <c r="C1077" t="s">
-        <v>2003</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="1078" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1078" t="s">
-        <v>2004</v>
+        <v>2001</v>
       </c>
       <c r="B1078" t="s">
-        <v>2005</v>
+        <v>2002</v>
       </c>
       <c r="C1078" t="s">
-        <v>2006</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="1079" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1079" t="s">
-        <v>2007</v>
+        <v>2003</v>
       </c>
       <c r="B1079" t="s">
-        <v>1971</v>
+        <v>2004</v>
       </c>
       <c r="C1079" t="s">
-        <v>1971</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="1080" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1080" t="s">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="B1080" t="s">
-        <v>2007</v>
+        <v>1970</v>
       </c>
       <c r="C1080" t="s">
-        <v>2007</v>
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1081" t="s">
+        <v>2004</v>
+      </c>
+      <c r="B1081" t="s">
+        <v>2006</v>
+      </c>
+      <c r="C1081" t="s">
+        <v>2006</v>
       </c>
     </row>
   </sheetData>
